--- a/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\planeacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4000EC62-DDEA-4787-8C40-7C7663029600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370E82C1-DAD3-4F64-9FFB-58C07F29D9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2895" windowWidth="28800" windowHeight="15345" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="3600" yWindow="2565" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>Gerente General</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>NO FACTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA ELECTRONICA </t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1485,7 @@
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1774,6 +1777,87 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1789,86 +1873,167 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1888,9 +2053,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1933,176 +2095,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2726,7 +2723,7 @@
   </sheetPr>
   <dimension ref="B2:U37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
@@ -2753,70 +2750,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="132" t="s">
+      <c r="F3" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="134" t="s">
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="135"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="162"/>
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
       <c r="H7" s="27" t="s">
         <v>40</v>
       </c>
@@ -2824,17 +2821,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>38</v>
@@ -2844,10 +2841,10 @@
       <c r="B9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>36</v>
@@ -2872,10 +2869,10 @@
       <c r="B11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
       <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
@@ -2907,52 +2904,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="152" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="143" t="s">
+      <c r="D17" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="143" t="s">
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="141" t="s">
+      <c r="J17" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="141" t="s">
+      <c r="K17" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="143" t="s">
+      <c r="L17" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="145"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="138"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="142"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="148"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="141"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -2975,23 +2972,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="151"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="144"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="157"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="147"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="152"/>
-      <c r="U20" s="152"/>
+      <c r="T20" s="145"/>
+      <c r="U20" s="145"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -2999,24 +2996,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="155"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="135"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="149"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="152"/>
-      <c r="U21" s="152"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3024,25 +3021,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="155"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="135"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3050,24 +3047,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="155"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="135"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="149"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="152"/>
-      <c r="U23" s="152"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3075,24 +3072,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="155"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="159"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="149"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
+      <c r="T24" s="145"/>
+      <c r="U24" s="145"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3100,24 +3097,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="155"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="161"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="151"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="152"/>
-      <c r="U25" s="152"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3139,11 +3136,11 @@
         <v>8</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="155"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -3158,11 +3155,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="155"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="135"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3177,11 +3174,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="155"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="135"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3210,13 +3207,13 @@
         <v>12</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="153" t="s">
+      <c r="D31" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="155"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="135"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -3247,10 +3244,10 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1">
-      <c r="B33" s="162" t="s">
+      <c r="B33" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="162"/>
+      <c r="C33" s="131"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -3266,10 +3263,10 @@
       </c>
     </row>
     <row r="36" spans="2:13" s="1" customFormat="1">
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="162"/>
+      <c r="C36" s="131"/>
       <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
@@ -3284,10 +3281,10 @@
       </c>
     </row>
     <row r="37" spans="2:13" s="1" customFormat="1">
-      <c r="B37" s="139" t="s">
+      <c r="B37" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="139"/>
+      <c r="C37" s="132"/>
       <c r="F37" s="1" t="s">
         <v>2</v>
       </c>
@@ -3300,14 +3297,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:O18"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="T20:U25"/>
@@ -3321,21 +3325,14 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D31:H31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3350,8 +3347,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3391,19 +3388,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="164" t="s">
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="165"/>
+      <c r="M3" s="219"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3429,95 +3426,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="166" t="s">
+      <c r="L5" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="167"/>
+      <c r="M5" s="221"/>
       <c r="N5" s="54"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="168" t="s">
+      <c r="B6" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="174" t="s">
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="227" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="177">
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="230">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="178"/>
+      <c r="M6" s="231"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="169"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="179">
+      <c r="B7" s="208"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="232">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="182" t="s">
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="233"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="183"/>
+      <c r="M7" s="236"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="189" t="s">
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="191">
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="209"/>
+      <c r="K8" s="210"/>
+      <c r="L8" s="215">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="192"/>
+      <c r="M8" s="216"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="169"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="193" t="s">
+      <c r="B9" s="208"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="194"/>
+      <c r="M9" s="204"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3533,62 +3530,64 @@
       <c r="G10" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="195">
+      <c r="H10" s="197">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="195"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="197">
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="199">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="198"/>
+      <c r="M10" s="200"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="201">
         <f>requi!C9</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="200"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="202"/>
       <c r="G11" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="193" t="s">
+      <c r="H11" s="197" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="197"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="194"/>
+      <c r="M11" s="204"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
       <c r="G12" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="195" t="s">
+      <c r="H12" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="202"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="205"/>
+      <c r="M12" s="206"/>
     </row>
     <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
@@ -3599,13 +3598,13 @@
       <c r="G13" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="206">
+      <c r="H13" s="237">
         <f>H29</f>
         <v>0</v>
       </c>
-      <c r="I13" s="206"/>
-      <c r="J13" s="206"/>
-      <c r="K13" s="207"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="238"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3626,14 +3625,14 @@
       <c r="E15" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="208" t="s">
+      <c r="F15" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="196"/>
       <c r="L15" s="70" t="s">
         <v>65</v>
       </c>
@@ -3658,15 +3657,15 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="205">
+      <c r="F16" s="193">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M27" si="0">L16*C16</f>
@@ -3690,15 +3689,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="205">
+      <c r="F17" s="193">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="205"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -3722,15 +3721,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="205">
+      <c r="F18" s="193">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -3754,15 +3753,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="205">
+      <c r="F19" s="193">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="193"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -3786,15 +3785,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="205">
+      <c r="F20" s="193">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="205"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="193"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -3818,15 +3817,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="205">
+      <c r="F21" s="193">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="205"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="193"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -3850,15 +3849,15 @@
         <f>requi!C26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="205">
+      <c r="F22" s="193">
         <f>requi!D26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="193"/>
       <c r="L22" s="80"/>
       <c r="M22" s="76">
         <f t="shared" si="0"/>
@@ -3882,15 +3881,15 @@
         <f>requi!C27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="205">
+      <c r="F23" s="193">
         <f>requi!D27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="205"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="193"/>
       <c r="L23" s="80"/>
       <c r="M23" s="76">
         <f t="shared" si="0"/>
@@ -3914,15 +3913,15 @@
         <f>requi!C28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="205">
+      <c r="F24" s="193">
         <f>requi!D28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="205"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="193"/>
       <c r="L24" s="80"/>
       <c r="M24" s="76">
         <f t="shared" si="0"/>
@@ -3946,15 +3945,15 @@
         <f>requi!C29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="205">
+      <c r="F25" s="193">
         <f>requi!D29</f>
         <v>0</v>
       </c>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="205"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="193"/>
       <c r="L25" s="80"/>
       <c r="M25" s="76">
         <f t="shared" si="0"/>
@@ -3969,12 +3968,12 @@
       <c r="C26" s="78"/>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="212"/>
-      <c r="K26" s="213"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="168"/>
       <c r="L26" s="80"/>
       <c r="M26" s="76">
         <f t="shared" si="0"/>
@@ -4032,10 +4031,10 @@
       <c r="G29" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="226"/>
-      <c r="I29" s="226"/>
-      <c r="J29" s="226"/>
-      <c r="K29" s="227"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="192"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76"/>
       <c r="N29" s="81"/>
@@ -4051,13 +4050,13 @@
       <c r="G30" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="226">
+      <c r="H30" s="191">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I30" s="226"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="227"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="192"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76"/>
       <c r="N30" s="81"/>
@@ -4073,13 +4072,13 @@
       <c r="G31" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="226">
+      <c r="H31" s="191">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I31" s="226"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="227"/>
+      <c r="I31" s="191"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="192"/>
       <c r="L31" s="80"/>
       <c r="M31" s="76"/>
       <c r="N31" s="81"/>
@@ -4095,13 +4094,13 @@
       <c r="G32" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="226">
+      <c r="H32" s="191">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I32" s="226"/>
-      <c r="J32" s="226"/>
-      <c r="K32" s="227"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="192"/>
       <c r="L32" s="80"/>
       <c r="M32" s="76"/>
       <c r="N32" s="81"/>
@@ -4117,13 +4116,13 @@
       <c r="G33" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="226">
+      <c r="H33" s="191">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I33" s="226"/>
-      <c r="J33" s="226"/>
-      <c r="K33" s="227"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="192"/>
       <c r="L33" s="80"/>
       <c r="M33" s="76"/>
       <c r="N33" s="81"/>
@@ -4143,31 +4142,31 @@
       <c r="G34" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="226">
+      <c r="H34" s="191">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I34" s="226"/>
-      <c r="J34" s="226"/>
-      <c r="K34" s="227"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="192"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
     </row>
     <row r="35" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B35" s="214" t="str">
+      <c r="B35" s="179" t="str">
         <f>PesosMN(M43)</f>
         <v>SON: ( PESO 00/100 M.N.)</v>
       </c>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="216"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="181"/>
       <c r="L35" s="80"/>
       <c r="M35" s="99" t="s">
         <v>31</v>
@@ -4175,18 +4174,18 @@
       <c r="N35" s="100"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="217" t="str">
+      <c r="B36" s="182" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="218"/>
-      <c r="G36" s="218"/>
-      <c r="H36" s="218"/>
-      <c r="I36" s="218"/>
-      <c r="J36" s="219"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="184"/>
       <c r="K36" s="86"/>
       <c r="L36" s="80" t="s">
         <v>31</v>
@@ -4197,21 +4196,21 @@
       <c r="N36" s="100"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="220" t="s">
+      <c r="B37" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="221"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222" t="s">
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="223"/>
-      <c r="G37" s="224"/>
-      <c r="H37" s="221" t="s">
+      <c r="F37" s="188"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="221"/>
-      <c r="J37" s="225"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="190"/>
       <c r="K37" s="86"/>
       <c r="L37" s="80" t="s">
         <v>31</v>
@@ -4237,21 +4236,21 @@
       <c r="N38" s="109"/>
     </row>
     <row r="39" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B39" s="240" t="s">
+      <c r="B39" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="229"/>
-      <c r="D39" s="229"/>
-      <c r="E39" s="228" t="s">
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="229"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="229" t="s">
+      <c r="F39" s="164"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="229"/>
-      <c r="J39" s="230"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
       <c r="K39" s="110"/>
       <c r="L39" s="111" t="s">
         <v>75</v>
@@ -4263,17 +4262,17 @@
       <c r="N39" s="113"/>
     </row>
     <row r="40" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B40" s="231" t="s">
+      <c r="B40" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="212"/>
-      <c r="D40" s="212"/>
-      <c r="E40" s="212"/>
-      <c r="F40" s="212"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="212"/>
-      <c r="I40" s="212"/>
-      <c r="J40" s="213"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="168"/>
       <c r="K40" s="114"/>
       <c r="L40" s="115" t="s">
         <v>77</v>
@@ -4305,12 +4304,12 @@
         <v>79</v>
       </c>
       <c r="G42" s="124"/>
-      <c r="H42" s="232">
+      <c r="H42" s="169">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I42" s="232"/>
-      <c r="J42" s="233"/>
+      <c r="I42" s="169"/>
+      <c r="J42" s="170"/>
       <c r="K42" s="114"/>
       <c r="L42" s="115" t="s">
         <v>80</v>
@@ -4319,21 +4318,21 @@
       <c r="N42" s="113"/>
     </row>
     <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="234" t="s">
+      <c r="B43" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="236" t="s">
+      <c r="C43" s="172"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="237"/>
-      <c r="G43" s="238"/>
-      <c r="H43" s="235" t="s">
+      <c r="F43" s="174"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="I43" s="235"/>
-      <c r="J43" s="239"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="176"/>
       <c r="K43" s="125" t="s">
         <v>31</v>
       </c>
@@ -4511,14 +4510,41 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="B36:J36"/>
@@ -4531,41 +4557,14 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="H34:K34"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\planeacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370E82C1-DAD3-4F64-9FFB-58C07F29D9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045A310A-1B52-4F83-B86D-CA9950AD61FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2565" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
@@ -1485,7 +1485,7 @@
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1768,110 +1768,305 @@
     <xf numFmtId="44" fontId="22" fillId="6" borderId="81" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1883,12 +2078,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1917,189 +2106,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2173,22 +2179,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>226223</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>675621</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:colOff>762199</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>154980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55594DD3-419E-2E67-6EE0-0F2CE4964A19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA32771A-D3DB-4389-B87B-E864DDB1BB6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,21 +2202,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="19868" t="16646" r="14059" b="9829"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="599750" y="6424941"/>
-          <a:ext cx="821531" cy="1235210"/>
+        <a:xfrm>
+          <a:off x="285750" y="6369844"/>
+          <a:ext cx="1428949" cy="1428949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2372,22 +2379,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>106263</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>2381</xdr:rowOff>
+      <xdr:colOff>304999</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F093898-7C1C-4327-BEE7-8F929AD1F968}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D990B19-EA84-A872-BA26-7F9E41B8D0DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,21 +2402,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="19868" t="16646" r="14059" b="9829"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="1085403" y="5677346"/>
-          <a:ext cx="754857" cy="1134963"/>
+        <a:xfrm>
+          <a:off x="800100" y="5562600"/>
+          <a:ext cx="1428949" cy="1428949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2721,10 +2729,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:U37"/>
+  <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2750,70 +2758,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="158" t="s">
+      <c r="F2" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="159" t="s">
+      <c r="F3" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="161" t="s">
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="162"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="135"/>
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
       <c r="H7" s="27" t="s">
         <v>40</v>
       </c>
@@ -2821,17 +2829,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="156" t="s">
+      <c r="M7" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>38</v>
@@ -2841,10 +2849,10 @@
       <c r="B9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>36</v>
@@ -2869,10 +2877,10 @@
       <c r="B11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
       <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
@@ -2904,52 +2912,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="152" t="s">
+      <c r="B17" s="141" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="136" t="s">
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="152" t="s">
+      <c r="J17" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="152" t="s">
+      <c r="K17" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="136" t="s">
+      <c r="L17" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="138"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="145"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="153"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="141"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="148"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -2972,23 +2980,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="144"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="151"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="147"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="157"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="145"/>
-      <c r="U20" s="145"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="152"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -2996,24 +3004,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="155"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="149"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="159"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="145"/>
-      <c r="U21" s="145"/>
+      <c r="T21" s="152"/>
+      <c r="U21" s="152"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3021,25 +3029,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="135"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="155"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="145"/>
-      <c r="U22" s="145"/>
+      <c r="T22" s="152"/>
+      <c r="U22" s="152"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3047,24 +3055,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="135"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="155"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="149"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="159"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="145"/>
-      <c r="U23" s="145"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3072,24 +3080,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="135"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="155"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="148"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="149"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="159"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="145"/>
-      <c r="U24" s="145"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3097,24 +3105,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="155"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="151"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="161"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="145"/>
-      <c r="U25" s="145"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3136,11 +3144,11 @@
         <v>8</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="135"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="155"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -3155,11 +3163,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="135"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="155"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3174,11 +3182,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="135"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="155"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3207,13 +3215,13 @@
         <v>12</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="133" t="s">
+      <c r="D31" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="135"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="155"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -3243,11 +3251,11 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="2:13" s="1" customFormat="1">
-      <c r="B33" s="131" t="s">
+    <row r="33" spans="2:15" s="1" customFormat="1">
+      <c r="B33" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="131"/>
+      <c r="C33" s="162"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -3262,11 +3270,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="1" customFormat="1">
-      <c r="B36" s="132" t="s">
+    <row r="36" spans="2:15" s="1" customFormat="1">
+      <c r="B36" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="131"/>
+      <c r="C36" s="162"/>
       <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
@@ -3280,11 +3288,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="1" customFormat="1">
-      <c r="B37" s="132" t="s">
+    <row r="37" spans="2:15" s="1" customFormat="1">
+      <c r="B37" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="132"/>
+      <c r="C37" s="139"/>
       <c r="F37" s="1" t="s">
         <v>2</v>
       </c>
@@ -3295,8 +3303,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="130"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="L17:O18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="T20:U25"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="B38:O38"/>
     <mergeCell ref="F2:N2"/>
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="D5:J5"/>
@@ -3312,27 +3358,6 @@
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:O18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="T20:U25"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D31:H31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3347,8 +3372,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3388,19 +3413,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="217" t="s">
+      <c r="E3" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="218" t="s">
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="219"/>
+      <c r="M3" s="167"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3426,95 +3451,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="220" t="s">
+      <c r="L5" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="221"/>
+      <c r="M5" s="169"/>
       <c r="N5" s="54"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="227" t="s">
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
-      <c r="L6" s="230">
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="179">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="231"/>
+      <c r="M6" s="180"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="208"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="232">
+      <c r="B7" s="171"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="181">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="233"/>
-      <c r="K7" s="234"/>
-      <c r="L7" s="235" t="s">
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="236"/>
+      <c r="M7" s="185"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="213" t="s">
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="191" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="215">
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="193">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="216"/>
+      <c r="M8" s="194"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="208"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="203" t="s">
+      <c r="B9" s="171"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="195" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="204"/>
+      <c r="M9" s="196"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3549,7 +3574,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="201">
-        <f>requi!C9</f>
+        <f>requi!C7</f>
         <v>0</v>
       </c>
       <c r="D11" s="201"/>
@@ -3564,10 +3589,10 @@
       <c r="I11" s="197"/>
       <c r="J11" s="197"/>
       <c r="K11" s="198"/>
-      <c r="L11" s="203" t="s">
+      <c r="L11" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="204"/>
+      <c r="M11" s="196"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
@@ -3586,8 +3611,8 @@
       <c r="I12" s="197"/>
       <c r="J12" s="197"/>
       <c r="K12" s="198"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="206"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="204"/>
     </row>
     <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
@@ -3598,13 +3623,13 @@
       <c r="G13" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="237">
+      <c r="H13" s="206">
         <f>H29</f>
         <v>0</v>
       </c>
-      <c r="I13" s="237"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="238"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="207"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3625,14 +3650,14 @@
       <c r="E15" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="194" t="s">
+      <c r="F15" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="195"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="196"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="210"/>
       <c r="L15" s="70" t="s">
         <v>65</v>
       </c>
@@ -3645,27 +3670,27 @@
       <c r="B16" s="74">
         <v>1</v>
       </c>
-      <c r="C16" s="130">
+      <c r="C16" s="129">
         <f>requi!J20</f>
         <v>0</v>
       </c>
-      <c r="D16" s="130">
+      <c r="D16" s="129">
         <f>requi!I20</f>
         <v>0</v>
       </c>
-      <c r="E16" s="130">
+      <c r="E16" s="129">
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="193">
+      <c r="F16" s="205">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="205"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M27" si="0">L16*C16</f>
@@ -3677,27 +3702,27 @@
       <c r="B17" s="74">
         <v>2</v>
       </c>
-      <c r="C17" s="130">
+      <c r="C17" s="129">
         <f>requi!J21</f>
         <v>0</v>
       </c>
-      <c r="D17" s="130">
+      <c r="D17" s="129">
         <f>requi!I21</f>
         <v>0</v>
       </c>
-      <c r="E17" s="130">
+      <c r="E17" s="129">
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="193">
+      <c r="F17" s="205">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -3709,27 +3734,27 @@
       <c r="B18" s="74">
         <v>3</v>
       </c>
-      <c r="C18" s="130">
+      <c r="C18" s="129">
         <f>requi!J22</f>
         <v>0</v>
       </c>
-      <c r="D18" s="130">
+      <c r="D18" s="129">
         <f>requi!I22</f>
         <v>0</v>
       </c>
-      <c r="E18" s="130">
+      <c r="E18" s="129">
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="193">
+      <c r="F18" s="205">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -3741,27 +3766,27 @@
       <c r="B19" s="74">
         <v>4</v>
       </c>
-      <c r="C19" s="130">
+      <c r="C19" s="129">
         <f>requi!J23</f>
         <v>0</v>
       </c>
-      <c r="D19" s="130">
+      <c r="D19" s="129">
         <f>requi!I23</f>
         <v>0</v>
       </c>
-      <c r="E19" s="130">
+      <c r="E19" s="129">
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="193">
+      <c r="F19" s="205">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="193"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -3773,27 +3798,27 @@
       <c r="B20" s="74">
         <v>5</v>
       </c>
-      <c r="C20" s="130">
+      <c r="C20" s="129">
         <f>requi!J24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="130">
+      <c r="D20" s="129">
         <f>requi!I24</f>
         <v>0</v>
       </c>
-      <c r="E20" s="130">
+      <c r="E20" s="129">
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="193">
+      <c r="F20" s="205">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="193"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="205"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -3805,27 +3830,27 @@
       <c r="B21" s="74">
         <v>6</v>
       </c>
-      <c r="C21" s="130">
+      <c r="C21" s="129">
         <f>requi!J25</f>
         <v>0</v>
       </c>
-      <c r="D21" s="130">
+      <c r="D21" s="129">
         <f>requi!I25</f>
         <v>0</v>
       </c>
-      <c r="E21" s="130">
+      <c r="E21" s="129">
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="193">
+      <c r="F21" s="205">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="205"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -3837,27 +3862,27 @@
       <c r="B22" s="74">
         <v>7</v>
       </c>
-      <c r="C22" s="130">
+      <c r="C22" s="129">
         <f>requi!J26</f>
         <v>0</v>
       </c>
-      <c r="D22" s="130">
+      <c r="D22" s="129">
         <f>requi!I26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="130">
+      <c r="E22" s="129">
         <f>requi!C26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="193">
+      <c r="F22" s="205">
         <f>requi!D26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="193"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="205"/>
       <c r="L22" s="80"/>
       <c r="M22" s="76">
         <f t="shared" si="0"/>
@@ -3869,27 +3894,27 @@
       <c r="B23" s="74">
         <v>8</v>
       </c>
-      <c r="C23" s="130">
+      <c r="C23" s="129">
         <f>requi!J27</f>
         <v>0</v>
       </c>
-      <c r="D23" s="130">
+      <c r="D23" s="129">
         <f>requi!I27</f>
         <v>0</v>
       </c>
-      <c r="E23" s="130">
+      <c r="E23" s="129">
         <f>requi!C27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="193">
+      <c r="F23" s="205">
         <f>requi!D27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="193"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="205"/>
       <c r="L23" s="80"/>
       <c r="M23" s="76">
         <f t="shared" si="0"/>
@@ -3901,27 +3926,27 @@
       <c r="B24" s="74">
         <v>9</v>
       </c>
-      <c r="C24" s="130">
+      <c r="C24" s="129">
         <f>requi!J28</f>
         <v>0</v>
       </c>
-      <c r="D24" s="130">
+      <c r="D24" s="129">
         <f>requi!I28</f>
         <v>0</v>
       </c>
-      <c r="E24" s="130">
+      <c r="E24" s="129">
         <f>requi!C28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="193">
+      <c r="F24" s="205">
         <f>requi!D28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="193"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="205"/>
       <c r="L24" s="80"/>
       <c r="M24" s="76">
         <f t="shared" si="0"/>
@@ -3933,27 +3958,27 @@
       <c r="B25" s="74">
         <v>10</v>
       </c>
-      <c r="C25" s="130">
+      <c r="C25" s="129">
         <f>requi!J29</f>
         <v>0</v>
       </c>
-      <c r="D25" s="130">
+      <c r="D25" s="129">
         <f>requi!I29</f>
         <v>0</v>
       </c>
-      <c r="E25" s="130">
+      <c r="E25" s="129">
         <f>requi!C29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="193">
+      <c r="F25" s="205">
         <f>requi!D29</f>
         <v>0</v>
       </c>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="193"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="205"/>
       <c r="L25" s="80"/>
       <c r="M25" s="76">
         <f t="shared" si="0"/>
@@ -3968,12 +3993,12 @@
       <c r="C26" s="78"/>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="168"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="213"/>
       <c r="L26" s="80"/>
       <c r="M26" s="76">
         <f t="shared" si="0"/>
@@ -4031,10 +4056,10 @@
       <c r="G29" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="192"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="226"/>
+      <c r="K29" s="227"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76"/>
       <c r="N29" s="81"/>
@@ -4050,13 +4075,13 @@
       <c r="G30" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="191">
+      <c r="H30" s="226">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I30" s="191"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="192"/>
+      <c r="I30" s="226"/>
+      <c r="J30" s="226"/>
+      <c r="K30" s="227"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76"/>
       <c r="N30" s="81"/>
@@ -4072,13 +4097,13 @@
       <c r="G31" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="191">
+      <c r="H31" s="226">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I31" s="191"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="192"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="227"/>
       <c r="L31" s="80"/>
       <c r="M31" s="76"/>
       <c r="N31" s="81"/>
@@ -4094,13 +4119,13 @@
       <c r="G32" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="191">
+      <c r="H32" s="226">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I32" s="191"/>
-      <c r="J32" s="191"/>
-      <c r="K32" s="192"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="226"/>
+      <c r="K32" s="227"/>
       <c r="L32" s="80"/>
       <c r="M32" s="76"/>
       <c r="N32" s="81"/>
@@ -4116,13 +4141,13 @@
       <c r="G33" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="191">
+      <c r="H33" s="226">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I33" s="191"/>
-      <c r="J33" s="191"/>
-      <c r="K33" s="192"/>
+      <c r="I33" s="226"/>
+      <c r="J33" s="226"/>
+      <c r="K33" s="227"/>
       <c r="L33" s="80"/>
       <c r="M33" s="76"/>
       <c r="N33" s="81"/>
@@ -4142,31 +4167,31 @@
       <c r="G34" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="191">
+      <c r="H34" s="226">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I34" s="191"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="192"/>
+      <c r="I34" s="226"/>
+      <c r="J34" s="226"/>
+      <c r="K34" s="227"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
     </row>
     <row r="35" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B35" s="179" t="str">
+      <c r="B35" s="214" t="str">
         <f>PesosMN(M43)</f>
         <v>SON: ( PESO 00/100 M.N.)</v>
       </c>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="181"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="216"/>
       <c r="L35" s="80"/>
       <c r="M35" s="99" t="s">
         <v>31</v>
@@ -4174,18 +4199,18 @@
       <c r="N35" s="100"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="182" t="str">
+      <c r="B36" s="217" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="184"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="219"/>
       <c r="K36" s="86"/>
       <c r="L36" s="80" t="s">
         <v>31</v>
@@ -4196,21 +4221,21 @@
       <c r="N36" s="100"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="185" t="s">
+      <c r="B37" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="187" t="s">
+      <c r="C37" s="221"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="188"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="186" t="s">
+      <c r="F37" s="223"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="221" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="186"/>
-      <c r="J37" s="190"/>
+      <c r="I37" s="221"/>
+      <c r="J37" s="225"/>
       <c r="K37" s="86"/>
       <c r="L37" s="80" t="s">
         <v>31</v>
@@ -4236,21 +4261,21 @@
       <c r="N38" s="109"/>
     </row>
     <row r="39" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="240" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="163" t="s">
+      <c r="C39" s="229"/>
+      <c r="D39" s="229"/>
+      <c r="E39" s="228" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="164"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="164" t="s">
+      <c r="F39" s="229"/>
+      <c r="G39" s="230"/>
+      <c r="H39" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="I39" s="229"/>
+      <c r="J39" s="230"/>
       <c r="K39" s="110"/>
       <c r="L39" s="111" t="s">
         <v>75</v>
@@ -4262,17 +4287,17 @@
       <c r="N39" s="113"/>
     </row>
     <row r="40" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B40" s="166" t="s">
+      <c r="B40" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="168"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="212"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="212"/>
+      <c r="I40" s="212"/>
+      <c r="J40" s="213"/>
       <c r="K40" s="114"/>
       <c r="L40" s="115" t="s">
         <v>77</v>
@@ -4304,12 +4329,12 @@
         <v>79</v>
       </c>
       <c r="G42" s="124"/>
-      <c r="H42" s="169">
+      <c r="H42" s="232">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I42" s="169"/>
-      <c r="J42" s="170"/>
+      <c r="I42" s="232"/>
+      <c r="J42" s="233"/>
       <c r="K42" s="114"/>
       <c r="L42" s="115" t="s">
         <v>80</v>
@@ -4318,21 +4343,21 @@
       <c r="N42" s="113"/>
     </row>
     <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="234" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173" t="s">
+      <c r="C43" s="235"/>
+      <c r="D43" s="235"/>
+      <c r="E43" s="236" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="174"/>
-      <c r="G43" s="175"/>
-      <c r="H43" s="172" t="s">
+      <c r="F43" s="237"/>
+      <c r="G43" s="238"/>
+      <c r="H43" s="235" t="s">
         <v>83</v>
       </c>
-      <c r="I43" s="172"/>
-      <c r="J43" s="176"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="239"/>
       <c r="K43" s="125" t="s">
         <v>31</v>
       </c>
@@ -4346,8 +4371,19 @@
       <c r="N43" s="113"/>
     </row>
     <row r="44" spans="2:14" ht="13.5" thickTop="1">
-      <c r="M44" s="128"/>
-      <c r="N44" s="129"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="163"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="163"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="128"/>
     </row>
     <row r="45" spans="2:14">
       <c r="M45" s="15"/>
@@ -4509,7 +4545,48 @@
       <c r="M97" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B44:M44"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L5:M5"/>
@@ -4525,46 +4602,6 @@
     <mergeCell ref="H8:K9"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\planeacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045A310A-1B52-4F83-B86D-CA9950AD61FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDB36E4-4061-43D1-A836-917CBBE779C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="compra" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">compra!$B$2:$M$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">requi!$A$1:$P$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">compra!$B$2:$M$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">requi!$A$1:$P$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,9 +52,6 @@
     <t>Superintendente</t>
   </si>
   <si>
-    <t>Auxiliar Administrativo</t>
-  </si>
-  <si>
     <t>Ing. Germán Samperio M.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Ing. Salvador Ramos Lara</t>
   </si>
   <si>
-    <t>L.C. Mary Carmen Bautista</t>
-  </si>
-  <si>
     <t>AUTORIZO</t>
   </si>
   <si>
@@ -259,58 +253,64 @@
     <t>3.-AUTORIZO</t>
   </si>
   <si>
+    <t>C.P. KARINA HERNANDEZ C.</t>
+  </si>
+  <si>
+    <t>ING. GERMAN SAMPERIO MENDOZA</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>CLIENTE O PROVEEDOR</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>IVA RET</t>
+  </si>
+  <si>
+    <t>ING. SALVADOR RAMOS LARA</t>
+  </si>
+  <si>
+    <t>ISR RET</t>
+  </si>
+  <si>
+    <t>SOLICITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   REVISO</t>
+  </si>
+  <si>
+    <t>REPRESENTANTE LEGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° PARTE </t>
+  </si>
+  <si>
+    <t>Superintendente de Maquinaria</t>
+  </si>
+  <si>
+    <t>Ing. Othoniel Gonzalez Ruiz</t>
+  </si>
+  <si>
+    <t>CONTRAPAGO</t>
+  </si>
+  <si>
+    <t>NOTA: NO FACTURA</t>
+  </si>
+  <si>
+    <t>NO FACTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA ELECTRONICA </t>
+  </si>
+  <si>
     <t xml:space="preserve">L.C. MARY CARMEN BAUTISTA </t>
-  </si>
-  <si>
-    <t>C.P. KARINA HERNANDEZ C.</t>
-  </si>
-  <si>
-    <t>ING. GERMAN SAMPERIO MENDOZA</t>
-  </si>
-  <si>
-    <t>SUBTOTAL</t>
-  </si>
-  <si>
-    <t>CLIENTE O PROVEEDOR</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>IVA RET</t>
-  </si>
-  <si>
-    <t>ING. SALVADOR RAMOS LARA</t>
-  </si>
-  <si>
-    <t>ISR RET</t>
-  </si>
-  <si>
-    <t>SOLICITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                   REVISO</t>
-  </si>
-  <si>
-    <t>REPRESENTANTE LEGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° PARTE </t>
-  </si>
-  <si>
-    <t>CONTRAPAGO</t>
-  </si>
-  <si>
-    <t>NOTA: NO FACTURA</t>
-  </si>
-  <si>
-    <t>NO FACTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERENCIA ELECTRONICA </t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -1473,6 +1473,37 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1485,7 +1516,7 @@
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1774,8 +1805,23 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1873,11 +1919,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2067,6 +2134,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2179,22 +2252,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>226219</xdr:rowOff>
+      <xdr:colOff>30278</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>762199</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>154980</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>107154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA32771A-D3DB-4389-B87B-E864DDB1BB6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F28BF5-0EBA-F5FC-ECDB-A402F4E148BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,8 +2276,17 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -2215,9 +2297,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="6369844"/>
-          <a:ext cx="1428949" cy="1428949"/>
+        <a:xfrm rot="16200000">
+          <a:off x="678093" y="6000185"/>
+          <a:ext cx="1102967" cy="2065221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2310,11 +2392,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>770890</xdr:colOff>
+      <xdr:colOff>742314</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="783590" cy="706120"/>
+    <xdr:ext cx="634201" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagen 3">
@@ -2343,8 +2425,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1121410" y="223520"/>
-          <a:ext cx="783590" cy="706120"/>
+          <a:off x="1085214" y="200026"/>
+          <a:ext cx="634201" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2379,22 +2461,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304999</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28774</xdr:rowOff>
+      <xdr:colOff>219274</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D990B19-EA84-A872-BA26-7F9E41B8D0DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8FFE1D-2B4E-40D0-9DB1-772A6FFB4743}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2498,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="5562600"/>
+          <a:off x="714375" y="6096000"/>
           <a:ext cx="1428949" cy="1428949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2729,18 +2811,19 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:U38"/>
+  <dimension ref="B2:U45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
@@ -2758,107 +2841,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="131" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
+      <c r="F2" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="132" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="134" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="135"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="140"/>
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
+        <v>39</v>
+      </c>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
       <c r="H7" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
+      <c r="M7" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O9" s="22"/>
     </row>
@@ -2866,98 +2949,98 @@
       <c r="B10" s="25"/>
       <c r="H10" s="22"/>
       <c r="I10" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" s="23"/>
     </row>
     <row r="12" spans="2:15">
       <c r="H12" s="22"/>
       <c r="I12" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="H13" s="22"/>
       <c r="I13" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="H14" s="22"/>
       <c r="I14" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="141" t="s">
-        <v>25</v>
+      <c r="B17" s="146" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="141" t="s">
+      <c r="D17" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="141" t="s">
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="143" t="s">
+      <c r="J17" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="145"/>
+      <c r="K17" s="146" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="150"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="142"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="148"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="153"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -2980,48 +3063,48 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="151"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="156"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="157"/>
+        <v>15</v>
+      </c>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="162"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="152"/>
-      <c r="U20" s="152"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
-        <f t="shared" ref="B21:B31" si="0">+B20+1</f>
+        <f t="shared" ref="B21:B38" si="0">+B20+1</f>
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="155"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="160"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
+        <v>14</v>
+      </c>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="164"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="152"/>
-      <c r="U21" s="152"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3029,25 +3112,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="155"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
+        <v>13</v>
+      </c>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3055,24 +3138,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="155"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="160"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+        <v>12</v>
+      </c>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="164"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="152"/>
-      <c r="U23" s="152"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="157"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3080,24 +3163,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="155"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="160"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="159"/>
+        <v>11</v>
+      </c>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="164"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3105,24 +3188,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="155"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="160"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="161"/>
+        <v>10</v>
+      </c>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="166"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="152"/>
-      <c r="U25" s="152"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3130,13 +3213,22 @@
         <v>7</v>
       </c>
       <c r="C26" s="12"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="135"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="9"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="132"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="1"/>
+      <c r="T26" s="130"/>
+      <c r="U26" s="130"/>
     </row>
     <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="12">
@@ -3144,18 +3236,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="155"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="9"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="132"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="1"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
     </row>
     <row r="28" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="12">
@@ -3163,18 +3259,22 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="155"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="173"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="9"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="132"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="1"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="130"/>
     </row>
     <row r="29" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="12">
@@ -3182,18 +3282,22 @@
         <v>10</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="155"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="173"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="9"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="132"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="1"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
     </row>
     <row r="30" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="12">
@@ -3201,134 +3305,286 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="2:21" ht="19.5" customHeight="1">
-      <c r="B31" s="8">
+      <c r="L30" s="32"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="132"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="1"/>
+      <c r="T30" s="130"/>
+      <c r="U30" s="130"/>
+    </row>
+    <row r="31" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="153" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" s="1" customFormat="1">
-      <c r="B33" s="162" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="162"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="132"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="1"/>
+      <c r="T31" s="130"/>
+      <c r="U31" s="130"/>
+    </row>
+    <row r="32" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="132"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="1"/>
+      <c r="T32" s="130"/>
+      <c r="U32" s="130"/>
+    </row>
+    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="2:20" ht="19.5" customHeight="1">
+      <c r="B38" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="168" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" s="1" customFormat="1">
+      <c r="B40" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
+      <c r="C40" s="167"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" s="1" customFormat="1">
-      <c r="B36" s="139" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="F36" s="1" t="s">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="1" t="s">
+    </row>
+    <row r="43" spans="2:20" s="1" customFormat="1">
+      <c r="B43" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="167"/>
+      <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="1" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" s="1" customFormat="1">
-      <c r="B37" s="139" t="s">
+      <c r="L43" s="2"/>
+      <c r="M43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="139"/>
-      <c r="F37" s="1" t="s">
+    </row>
+    <row r="44" spans="2:20" s="1" customFormat="1">
+      <c r="B44" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="144"/>
+      <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
+      <c r="M44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="144"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
+  <mergeCells count="43">
+    <mergeCell ref="B45:O45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
     <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
     <mergeCell ref="L17:O18"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="T20:U25"/>
@@ -3342,22 +3598,21 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="F2:N2"/>
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="D6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3370,10 +3625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC632B1E-9A63-463F-AD19-4D6F88E4DF95}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:N97"/>
+  <dimension ref="B1:N102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:M44"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3395,7 +3650,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" thickBot="1"/>
-    <row r="2" spans="2:14" ht="16.5" customHeight="1" thickTop="1">
+    <row r="2" spans="2:14" ht="6" customHeight="1" thickTop="1">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="39"/>
@@ -3413,19 +3668,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="165" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="166" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="167"/>
+      <c r="E3" s="177" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="178" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="179"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3435,7 +3690,7 @@
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
       <c r="L4" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="46"/>
@@ -3451,168 +3706,168 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="168" t="s">
+      <c r="L5" s="180" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="181"/>
+      <c r="N5" s="54"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.45" customHeight="1">
+      <c r="B6" s="182" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="184" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="169"/>
-      <c r="N5" s="54"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="170" t="s">
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="191">
+        <f>L10</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="192"/>
+      <c r="N6" s="46"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="183"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="193">
+        <f>requi!K20</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="172" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="176" t="s">
+      <c r="M7" s="197"/>
+      <c r="N7" s="46"/>
+    </row>
+    <row r="8" spans="2:14" ht="12.95" customHeight="1">
+      <c r="B8" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="179">
-        <f>L10</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="180"/>
-      <c r="N6" s="46"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="171"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="181">
-        <f>requi!K20</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="184" t="s">
+      <c r="C8" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="185"/>
-      <c r="N7" s="46"/>
-    </row>
-    <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="186" t="s">
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="205">
+        <f>requi!C11</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="206"/>
+      <c r="N8" s="55"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="183"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="207" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="191" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="193">
-        <f>requi!C11</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="194"/>
-      <c r="N8" s="55"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="171"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="195" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="196"/>
+      <c r="M9" s="208"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="58"/>
       <c r="F10" s="59"/>
       <c r="G10" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="197">
+        <v>56</v>
+      </c>
+      <c r="H10" s="209">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="199">
+      <c r="I10" s="209"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="211">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="200"/>
+      <c r="M10" s="212"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="213">
+        <f>requi!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="210"/>
+      <c r="L11" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="201">
-        <f>requi!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="197" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="195" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="196"/>
+      <c r="M11" s="208"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="201"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
+        <v>60</v>
+      </c>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="214"/>
       <c r="G12" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="197" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="204"/>
+        <v>61</v>
+      </c>
+      <c r="H12" s="209" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="209"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="216"/>
     </row>
     <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
@@ -3621,48 +3876,48 @@
       <c r="E13" s="64"/>
       <c r="F13" s="65"/>
       <c r="G13" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="206">
-        <f>H29</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="206"/>
-      <c r="J13" s="206"/>
-      <c r="K13" s="207"/>
+        <v>62</v>
+      </c>
+      <c r="H13" s="218">
+        <f>H34</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="218"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="219"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
     </row>
-    <row r="14" spans="2:14" ht="14.25" thickTop="1" thickBot="1">
+    <row r="14" spans="2:14" ht="5.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="2:14" ht="13.5" thickBot="1">
       <c r="B15" s="69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="208" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="222"/>
       <c r="L15" s="70" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M15" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N15" s="72"/>
     </row>
@@ -3682,18 +3937,18 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="205">
+      <c r="F16" s="217">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="217"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
-        <f t="shared" ref="M16:M27" si="0">L16*C16</f>
+        <f t="shared" ref="M16:M32" si="0">L16*C16</f>
         <v>0</v>
       </c>
       <c r="N16" s="77"/>
@@ -3714,15 +3969,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="205">
+      <c r="F17" s="217">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="205"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="217"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -3746,15 +4001,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="205">
+      <c r="F18" s="217">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="217"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -3778,15 +4033,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="205">
+      <c r="F19" s="217">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="217"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -3810,15 +4065,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="205">
+      <c r="F20" s="217">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="205"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="217"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -3842,15 +4097,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="205">
+      <c r="F21" s="217">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="205"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="217"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -3862,228 +4117,195 @@
       <c r="B22" s="74">
         <v>7</v>
       </c>
-      <c r="C22" s="129">
-        <f>requi!J26</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="129">
-        <f>requi!I26</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="129">
-        <f>requi!C26</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="205">
-        <f>requi!D26</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="176"/>
       <c r="L22" s="80"/>
-      <c r="M22" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M22" s="76"/>
       <c r="N22" s="81"/>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="74">
         <v>8</v>
       </c>
-      <c r="C23" s="129">
-        <f>requi!J27</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="129">
-        <f>requi!I27</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="129">
-        <f>requi!C27</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="205">
-        <f>requi!D27</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="205"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="176"/>
       <c r="L23" s="80"/>
-      <c r="M23" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M23" s="76"/>
       <c r="N23" s="81"/>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="74">
         <v>9</v>
       </c>
-      <c r="C24" s="129">
-        <f>requi!J28</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="129">
-        <f>requi!I28</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="129">
-        <f>requi!C28</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="205">
-        <f>requi!D28</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="205"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="176"/>
       <c r="L24" s="80"/>
-      <c r="M24" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M24" s="76"/>
       <c r="N24" s="81"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="74">
         <v>10</v>
       </c>
-      <c r="C25" s="129">
-        <f>requi!J29</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="129">
-        <f>requi!I29</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="129">
-        <f>requi!C29</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="205">
-        <f>requi!D29</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="205"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="176"/>
       <c r="L25" s="80"/>
-      <c r="M25" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M25" s="76"/>
       <c r="N25" s="81"/>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="74">
         <v>11</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="212"/>
-      <c r="K26" s="213"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="176"/>
       <c r="L26" s="80"/>
-      <c r="M26" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M26" s="76"/>
       <c r="N26" s="81"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="74">
         <v>12</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="176"/>
       <c r="L27" s="80"/>
-      <c r="M27" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M27" s="76"/>
       <c r="N27" s="81"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="74">
         <v>13</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
+      <c r="C28" s="129">
+        <f>requi!J33</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="129">
+        <f>requi!I33</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="129">
+        <f>requi!C33</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="217">
+        <f>requi!D33</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="217"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="217"/>
+      <c r="J28" s="217"/>
+      <c r="K28" s="217"/>
       <c r="L28" s="80"/>
-      <c r="M28" s="76"/>
+      <c r="M28" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N28" s="81"/>
     </row>
-    <row r="29" spans="2:14" ht="13.5" customHeight="1">
+    <row r="29" spans="2:14">
       <c r="B29" s="74">
         <v>14</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="226"/>
-      <c r="I29" s="226"/>
-      <c r="J29" s="226"/>
-      <c r="K29" s="227"/>
+      <c r="C29" s="129">
+        <f>requi!J34</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="129">
+        <f>requi!I34</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="129">
+        <f>requi!C34</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="217">
+        <f>requi!D34</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="217"/>
       <c r="L29" s="80"/>
-      <c r="M29" s="76"/>
+      <c r="M29" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N29" s="81"/>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="74">
         <v>15</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="226">
-        <f>requi!M23</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="226"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="227"/>
+      <c r="C30" s="129">
+        <f>requi!J36</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="129">
+        <f>requi!I36</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="129">
+        <f>requi!C36</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="217"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="217"/>
       <c r="L30" s="80"/>
-      <c r="M30" s="76"/>
+      <c r="M30" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:14">
@@ -4092,20 +4314,18 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="82"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="226">
-        <f>requi!M24</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="226"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="227"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="223"/>
+      <c r="G31" s="224"/>
+      <c r="H31" s="224"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="225"/>
       <c r="L31" s="80"/>
-      <c r="M31" s="76"/>
+      <c r="M31" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N31" s="81"/>
     </row>
     <row r="32" spans="2:14">
@@ -4114,335 +4334,422 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="82"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="226">
-        <f>requi!M25</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="226"/>
-      <c r="J32" s="226"/>
-      <c r="K32" s="227"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
       <c r="L32" s="80"/>
-      <c r="M32" s="76"/>
+      <c r="M32" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N32" s="81"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="74">
         <v>18</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="226">
-        <f>requi!M22</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="226"/>
-      <c r="J33" s="226"/>
-      <c r="K33" s="227"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
       <c r="L33" s="80"/>
       <c r="M33" s="76"/>
       <c r="N33" s="81"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" ht="13.5" customHeight="1">
       <c r="B34" s="74">
         <v>19</v>
       </c>
-      <c r="C34" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="226">
-        <f>requi!M21</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="226"/>
-      <c r="J34" s="226"/>
-      <c r="K34" s="227"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="238"/>
+      <c r="I34" s="238"/>
+      <c r="J34" s="238"/>
+      <c r="K34" s="239"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
     </row>
-    <row r="35" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B35" s="214" t="str">
-        <f>PesosMN(M43)</f>
-        <v>SON: ( PESO 00/100 M.N.)</v>
-      </c>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="216"/>
+    <row r="35" spans="2:14">
+      <c r="B35" s="74">
+        <v>20</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="238">
+        <f>requi!M23</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="238"/>
+      <c r="J35" s="238"/>
+      <c r="K35" s="239"/>
       <c r="L35" s="80"/>
-      <c r="M35" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" s="100"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="81"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="217" t="str">
+      <c r="B36" s="74">
+        <v>21</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="238">
+        <f>requi!M24</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="238"/>
+      <c r="J36" s="238"/>
+      <c r="K36" s="239"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="81"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="74">
+        <v>22</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="238">
+        <f>requi!M25</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="238"/>
+      <c r="J37" s="238"/>
+      <c r="K37" s="239"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="81"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="74">
+        <v>23</v>
+      </c>
+      <c r="C38" s="95"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="238">
+        <f>requi!M22</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="238"/>
+      <c r="J38" s="238"/>
+      <c r="K38" s="239"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="81"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="74">
+        <v>24</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="79"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="238">
+        <f>requi!M21</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="238"/>
+      <c r="J39" s="238"/>
+      <c r="K39" s="239"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="81"/>
+    </row>
+    <row r="40" spans="2:14" ht="10.9" customHeight="1">
+      <c r="B40" s="226" t="e">
+        <f ca="1">PesosMN(M48)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C40" s="227"/>
+      <c r="D40" s="227"/>
+      <c r="E40" s="227"/>
+      <c r="F40" s="227"/>
+      <c r="G40" s="227"/>
+      <c r="H40" s="227"/>
+      <c r="I40" s="227"/>
+      <c r="J40" s="227"/>
+      <c r="K40" s="228"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="100"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="229" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="218"/>
-      <c r="G36" s="218"/>
-      <c r="H36" s="218"/>
-      <c r="I36" s="218"/>
-      <c r="J36" s="219"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="100"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="220" t="s">
+      <c r="C41" s="230"/>
+      <c r="D41" s="230"/>
+      <c r="E41" s="230"/>
+      <c r="F41" s="230"/>
+      <c r="G41" s="230"/>
+      <c r="H41" s="230"/>
+      <c r="I41" s="230"/>
+      <c r="J41" s="231"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="100"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="232" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="233"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="234" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="235"/>
+      <c r="G42" s="236"/>
+      <c r="H42" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="221"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222" t="s">
+      <c r="I42" s="233"/>
+      <c r="J42" s="237"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="100"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="102"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="109"/>
+    </row>
+    <row r="44" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B44" s="254" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="243"/>
+      <c r="D44" s="243"/>
+      <c r="E44" s="242" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="223"/>
-      <c r="G37" s="224"/>
-      <c r="H37" s="221" t="s">
+      <c r="F44" s="243"/>
+      <c r="G44" s="244"/>
+      <c r="H44" s="243" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="221"/>
-      <c r="J37" s="225"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="N37" s="100"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="109"/>
-    </row>
-    <row r="39" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B39" s="240" t="s">
+      <c r="I44" s="243"/>
+      <c r="J44" s="244"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="229"/>
-      <c r="D39" s="229"/>
-      <c r="E39" s="228" t="s">
+      <c r="M44" s="112">
+        <f>SUM(M16:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="113"/>
+    </row>
+    <row r="45" spans="2:14" ht="14.45" customHeight="1">
+      <c r="B45" s="245" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="229"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="229" t="s">
+      <c r="C45" s="224"/>
+      <c r="D45" s="224"/>
+      <c r="E45" s="224"/>
+      <c r="F45" s="224"/>
+      <c r="G45" s="224"/>
+      <c r="H45" s="224"/>
+      <c r="I45" s="224"/>
+      <c r="J45" s="225"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="229"/>
-      <c r="J39" s="230"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="111" t="s">
+      <c r="M45" s="112"/>
+      <c r="N45" s="113"/>
+    </row>
+    <row r="46" spans="2:14" ht="13.15" customHeight="1">
+      <c r="B46" s="116"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="M39" s="112">
-        <f>SUM(M16:M35)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="113"/>
-    </row>
-    <row r="40" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B40" s="231" t="s">
+      <c r="M46" s="112"/>
+      <c r="N46" s="113"/>
+    </row>
+    <row r="47" spans="2:14" ht="11.45" customHeight="1">
+      <c r="B47" s="121"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="212"/>
-      <c r="D40" s="212"/>
-      <c r="E40" s="212"/>
-      <c r="F40" s="212"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="212"/>
-      <c r="I40" s="212"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="115" t="s">
+      <c r="G47" s="124"/>
+      <c r="H47" s="246">
+        <f>+G7</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="246"/>
+      <c r="J47" s="247"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="M40" s="112"/>
-      <c r="N40" s="113"/>
-    </row>
-    <row r="41" spans="2:14" ht="13.15" customHeight="1">
-      <c r="B41" s="116"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="115" t="s">
+      <c r="M47" s="112"/>
+      <c r="N47" s="113"/>
+    </row>
+    <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1">
+      <c r="B48" s="248" t="s">
         <v>78</v>
       </c>
-      <c r="M41" s="112"/>
-      <c r="N41" s="113"/>
-    </row>
-    <row r="42" spans="2:14" ht="11.45" customHeight="1">
-      <c r="B42" s="121"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="123" t="s">
+      <c r="C48" s="249"/>
+      <c r="D48" s="249"/>
+      <c r="E48" s="250" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="124"/>
-      <c r="H42" s="232">
-        <f>+G7</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="232"/>
-      <c r="J42" s="233"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="115" t="s">
+      <c r="F48" s="251"/>
+      <c r="G48" s="252"/>
+      <c r="H48" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="M42" s="112"/>
-      <c r="N42" s="113"/>
-    </row>
-    <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="234" t="s">
+      <c r="I48" s="249"/>
+      <c r="J48" s="253"/>
+      <c r="K48" s="125" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="236" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="237"/>
-      <c r="G43" s="238"/>
-      <c r="H43" s="235" t="s">
-        <v>83</v>
-      </c>
-      <c r="I43" s="235"/>
-      <c r="J43" s="239"/>
-      <c r="K43" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="L43" s="126" t="s">
-        <v>84</v>
-      </c>
-      <c r="M43" s="127">
-        <f>+M39+M40-M41-M42</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="113"/>
-    </row>
-    <row r="44" spans="2:14" ht="13.5" thickTop="1">
-      <c r="B44" s="163"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="128"/>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="M45" s="15"/>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="M46" s="15"/>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="M47" s="15"/>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="M48" s="15"/>
-    </row>
-    <row r="49" spans="13:13">
-      <c r="M49" s="15"/>
-    </row>
-    <row r="50" spans="13:13">
+      <c r="M48" s="127">
+        <f>+M44+M45-M46-M47</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="113"/>
+    </row>
+    <row r="49" spans="2:14" ht="13.5" thickTop="1">
+      <c r="B49" s="240"/>
+      <c r="C49" s="240"/>
+      <c r="D49" s="240"/>
+      <c r="E49" s="240"/>
+      <c r="F49" s="240"/>
+      <c r="G49" s="240"/>
+      <c r="H49" s="240"/>
+      <c r="I49" s="240"/>
+      <c r="J49" s="240"/>
+      <c r="K49" s="240"/>
+      <c r="L49" s="240"/>
+      <c r="M49" s="241"/>
+      <c r="N49" s="128"/>
+    </row>
+    <row r="50" spans="2:14">
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="13:13">
+    <row r="51" spans="2:14">
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="13:13">
+    <row r="52" spans="2:14">
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="13:13">
+    <row r="53" spans="2:14">
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="13:13">
+    <row r="54" spans="2:14">
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="13:13">
+    <row r="55" spans="2:14">
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="13:13">
+    <row r="56" spans="2:14">
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="13:13">
+    <row r="57" spans="2:14">
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="13:13">
+    <row r="58" spans="2:14">
       <c r="M58" s="15"/>
     </row>
-    <row r="59" spans="13:13">
+    <row r="59" spans="2:14">
       <c r="M59" s="15"/>
     </row>
-    <row r="60" spans="13:13">
+    <row r="60" spans="2:14">
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="13:13">
+    <row r="61" spans="2:14">
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="13:13">
+    <row r="62" spans="2:14">
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="13:13">
+    <row r="63" spans="2:14">
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="13:13">
+    <row r="64" spans="2:14">
       <c r="M64" s="15"/>
     </row>
     <row r="65" spans="13:13">
@@ -4544,29 +4851,45 @@
     <row r="97" spans="13:13">
       <c r="M97" s="15"/>
     </row>
+    <row r="98" spans="13:13">
+      <c r="M98" s="15"/>
+    </row>
+    <row r="99" spans="13:13">
+      <c r="M99" s="15"/>
+    </row>
+    <row r="100" spans="13:13">
+      <c r="M100" s="15"/>
+    </row>
+    <row r="101" spans="13:13">
+      <c r="M101" s="15"/>
+    </row>
+    <row r="102" spans="13:13">
+      <c r="M102" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B40:J40"/>
+  <mergeCells count="61">
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
     <mergeCell ref="H34:K34"/>
-    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="F30:K30"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="F16:K16"/>
@@ -4575,9 +4898,29 @@
     <mergeCell ref="F19:K19"/>
     <mergeCell ref="F20:K20"/>
     <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
     <mergeCell ref="F22:K22"/>
     <mergeCell ref="F23:K23"/>
     <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="C11:F11"/>
@@ -4586,22 +4929,6 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\planeacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDB36E4-4061-43D1-A836-917CBBE779C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B6C434-3DB1-4170-87ED-58B551469AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
@@ -1516,7 +1516,7 @@
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1823,6 +1823,105 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1838,113 +1937,200 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1961,87 +2147,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2064,120 +2169,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2841,70 +2832,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="139" t="s">
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="140"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="173"/>
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
@@ -2912,17 +2903,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="143" t="s">
+      <c r="M7" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>36</v>
@@ -2932,10 +2923,10 @@
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
@@ -2960,10 +2951,10 @@
       <c r="B11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2995,52 +2986,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="163" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="148" t="s">
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="146" t="s">
+      <c r="J17" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="146" t="s">
+      <c r="K17" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="148" t="s">
+      <c r="L17" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="149"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="150"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="149"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="147"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="153"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="152"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -3063,23 +3054,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="156"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="155"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="162"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="158"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="157"/>
-      <c r="U20" s="157"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -3087,24 +3078,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="160"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="164"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="160"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="157"/>
-      <c r="U21" s="157"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3112,25 +3103,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="160"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="140"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3138,24 +3129,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="160"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="164"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="160"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="157"/>
-      <c r="U23" s="157"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3163,24 +3154,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="140"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="164"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="160"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="157"/>
-      <c r="U24" s="157"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3188,24 +3179,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="160"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="140"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="166"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="162"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="157"/>
-      <c r="U25" s="157"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3259,11 +3250,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="173"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3282,11 +3273,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="173"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3305,11 +3296,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="173"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3328,11 +3319,11 @@
         <v>12</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="173"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="146"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -3351,11 +3342,11 @@
         <v>13</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="146"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -3374,11 +3365,11 @@
         <v>14</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="173"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="146"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -3393,11 +3384,11 @@
         <v>15</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="160"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="140"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -3412,11 +3403,11 @@
         <v>16</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="160"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="140"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -3445,11 +3436,11 @@
         <v>18</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="160"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="140"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -3464,13 +3455,13 @@
         <v>19</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="168" t="s">
+      <c r="D38" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="170"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="143"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -3501,10 +3492,10 @@
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="2:20" s="1" customFormat="1">
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="167"/>
+      <c r="C40" s="137"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>8</v>
@@ -3520,10 +3511,10 @@
       </c>
     </row>
     <row r="43" spans="2:20" s="1" customFormat="1">
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="167"/>
+      <c r="C43" s="137"/>
       <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3538,10 +3529,10 @@
       </c>
     </row>
     <row r="44" spans="2:20" s="1" customFormat="1">
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="144"/>
+      <c r="C44" s="136"/>
       <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3553,23 +3544,51 @@
       </c>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:O18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="T20:U25"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B45:O45"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B43:C43"/>
@@ -3585,34 +3604,6 @@
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D33:H33"/>
-    <mergeCell ref="L17:O18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="T20:U25"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3628,7 +3619,7 @@
   <dimension ref="B1:N102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3668,19 +3659,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="178" t="s">
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="179"/>
+      <c r="M3" s="241"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3706,95 +3697,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="180" t="s">
+      <c r="L5" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="181"/>
+      <c r="M5" s="243"/>
       <c r="N5" s="54"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="184" t="s">
+      <c r="C6" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="188" t="s">
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="191">
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="232">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="192"/>
+      <c r="M6" s="233"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="183"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="193">
+      <c r="B7" s="213"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="234">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="195"/>
-      <c r="L7" s="196" t="s">
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="197"/>
+      <c r="M7" s="238"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="203" t="s">
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="205">
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="220">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="206"/>
+      <c r="M8" s="221"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="183"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="207" t="s">
+      <c r="B9" s="213"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="208"/>
+      <c r="M9" s="223"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3810,64 +3801,64 @@
       <c r="G10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="209">
+      <c r="H10" s="244">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="209"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="211">
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="245"/>
+      <c r="L10" s="246">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="212"/>
+      <c r="M10" s="247"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="213">
+      <c r="C11" s="248">
         <f>requi!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="214"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="249"/>
       <c r="G11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="209" t="s">
+      <c r="H11" s="244" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="209"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="207" t="s">
+      <c r="I11" s="244"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="245"/>
+      <c r="L11" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="208"/>
+      <c r="M11" s="223"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="214"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="249"/>
       <c r="G12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="209" t="s">
+      <c r="H12" s="244" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="209"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="216"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="245"/>
+      <c r="L12" s="250"/>
+      <c r="M12" s="251"/>
     </row>
     <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
@@ -3878,13 +3869,13 @@
       <c r="G13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="218">
+      <c r="H13" s="207">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="219"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="207"/>
+      <c r="K13" s="208"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3905,14 +3896,14 @@
       <c r="E15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="220" t="s">
+      <c r="F15" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="222"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="211"/>
       <c r="L15" s="70" t="s">
         <v>63</v>
       </c>
@@ -3937,15 +3928,15 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="217">
+      <c r="F16" s="206">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
-      <c r="K16" s="217"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="206"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M32" si="0">L16*C16</f>
@@ -3969,15 +3960,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="217">
+      <c r="F17" s="206">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="217"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="206"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -4001,15 +3992,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="217">
+      <c r="F18" s="206">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="217"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -4033,15 +4024,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="217">
+      <c r="F19" s="206">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="217"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -4065,15 +4056,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="217">
+      <c r="F20" s="206">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="217"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="217"/>
-      <c r="J20" s="217"/>
-      <c r="K20" s="217"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="206"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -4097,15 +4088,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="217">
+      <c r="F21" s="206">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="217"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="217"/>
-      <c r="K21" s="217"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -4117,15 +4108,27 @@
       <c r="B22" s="74">
         <v>7</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="176"/>
+      <c r="C22" s="129">
+        <f>requi!J26</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="129">
+        <f>requi!I26</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="129">
+        <f>requi!C26</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="206">
+        <f>requi!D26</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="206"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="206"/>
       <c r="L22" s="80"/>
       <c r="M22" s="76"/>
       <c r="N22" s="81"/>
@@ -4134,15 +4137,27 @@
       <c r="B23" s="74">
         <v>8</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="176"/>
+      <c r="C23" s="129">
+        <f>requi!J27</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="129">
+        <f>requi!I27</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="129">
+        <f>requi!C27</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="206">
+        <f>requi!D27</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="206"/>
       <c r="L23" s="80"/>
       <c r="M23" s="76"/>
       <c r="N23" s="81"/>
@@ -4151,15 +4166,27 @@
       <c r="B24" s="74">
         <v>9</v>
       </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="176"/>
+      <c r="C24" s="129">
+        <f>requi!J28</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="129">
+        <f>requi!I28</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="129">
+        <f>requi!C28</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="206">
+        <f>requi!D28</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="206"/>
       <c r="L24" s="80"/>
       <c r="M24" s="76"/>
       <c r="N24" s="81"/>
@@ -4168,15 +4195,27 @@
       <c r="B25" s="74">
         <v>10</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="176"/>
+      <c r="C25" s="129">
+        <f>requi!J29</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="129">
+        <f>requi!I29</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="129">
+        <f>requi!C29</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="206">
+        <f>requi!D29</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
       <c r="L25" s="80"/>
       <c r="M25" s="76"/>
       <c r="N25" s="81"/>
@@ -4185,15 +4224,27 @@
       <c r="B26" s="74">
         <v>11</v>
       </c>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="176"/>
+      <c r="C26" s="129">
+        <f>requi!J30</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="129">
+        <f>requi!I30</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="129">
+        <f>requi!C30</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="206">
+        <f>requi!D30</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="206"/>
       <c r="L26" s="80"/>
       <c r="M26" s="76"/>
       <c r="N26" s="81"/>
@@ -4202,15 +4253,27 @@
       <c r="B27" s="74">
         <v>12</v>
       </c>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="176"/>
+      <c r="C27" s="129">
+        <f>requi!J31</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="129">
+        <f>requi!I31</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="129">
+        <f>requi!C31</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="206">
+        <f>requi!D31</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="206"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="206"/>
       <c r="L27" s="80"/>
       <c r="M27" s="76"/>
       <c r="N27" s="81"/>
@@ -4220,26 +4283,26 @@
         <v>13</v>
       </c>
       <c r="C28" s="129">
-        <f>requi!J33</f>
+        <f>requi!J32</f>
         <v>0</v>
       </c>
       <c r="D28" s="129">
-        <f>requi!I33</f>
+        <f>requi!I32</f>
         <v>0</v>
       </c>
       <c r="E28" s="129">
-        <f>requi!C33</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="217">
-        <f>requi!D33</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="217"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="217"/>
-      <c r="J28" s="217"/>
-      <c r="K28" s="217"/>
+        <f>requi!C32</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="206">
+        <f>requi!D32</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="206"/>
       <c r="L28" s="80"/>
       <c r="M28" s="76">
         <f t="shared" si="0"/>
@@ -4252,26 +4315,26 @@
         <v>14</v>
       </c>
       <c r="C29" s="129">
-        <f>requi!J34</f>
+        <f>requi!J33</f>
         <v>0</v>
       </c>
       <c r="D29" s="129">
-        <f>requi!I34</f>
+        <f>requi!I33</f>
         <v>0</v>
       </c>
       <c r="E29" s="129">
-        <f>requi!C34</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="217">
-        <f>requi!D34</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="217"/>
+        <f>requi!C33</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="206">
+        <f>requi!D33</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="206"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76">
         <f t="shared" si="0"/>
@@ -4284,23 +4347,26 @@
         <v>15</v>
       </c>
       <c r="C30" s="129">
-        <f>requi!J36</f>
+        <f>requi!J34</f>
         <v>0</v>
       </c>
       <c r="D30" s="129">
-        <f>requi!I36</f>
+        <f>requi!I34</f>
         <v>0</v>
       </c>
       <c r="E30" s="129">
-        <f>requi!C36</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="217"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="217"/>
-      <c r="K30" s="217"/>
+        <f>requi!C34</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="206">
+        <f>requi!D34</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="206"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76">
         <f t="shared" si="0"/>
@@ -4315,12 +4381,12 @@
       <c r="C31" s="78"/>
       <c r="D31" s="82"/>
       <c r="E31" s="83"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="224"/>
-      <c r="H31" s="224"/>
-      <c r="I31" s="224"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="225"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="181"/>
       <c r="L31" s="80"/>
       <c r="M31" s="76">
         <f t="shared" si="0"/>
@@ -4378,10 +4444,10 @@
       <c r="G34" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="238"/>
-      <c r="I34" s="238"/>
-      <c r="J34" s="238"/>
-      <c r="K34" s="239"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="204"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="205"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
@@ -4397,13 +4463,13 @@
       <c r="G35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="238">
+      <c r="H35" s="204">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I35" s="238"/>
-      <c r="J35" s="238"/>
-      <c r="K35" s="239"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="205"/>
       <c r="L35" s="80"/>
       <c r="M35" s="76"/>
       <c r="N35" s="81"/>
@@ -4419,13 +4485,13 @@
       <c r="G36" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="238">
+      <c r="H36" s="204">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I36" s="238"/>
-      <c r="J36" s="238"/>
-      <c r="K36" s="239"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="205"/>
       <c r="L36" s="80"/>
       <c r="M36" s="76"/>
       <c r="N36" s="81"/>
@@ -4441,13 +4507,13 @@
       <c r="G37" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="238">
+      <c r="H37" s="204">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I37" s="238"/>
-      <c r="J37" s="238"/>
-      <c r="K37" s="239"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="205"/>
       <c r="L37" s="80"/>
       <c r="M37" s="76"/>
       <c r="N37" s="81"/>
@@ -4463,13 +4529,13 @@
       <c r="G38" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="238">
+      <c r="H38" s="204">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I38" s="238"/>
-      <c r="J38" s="238"/>
-      <c r="K38" s="239"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="205"/>
       <c r="L38" s="80"/>
       <c r="M38" s="76"/>
       <c r="N38" s="81"/>
@@ -4489,31 +4555,31 @@
       <c r="G39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="238">
+      <c r="H39" s="204">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I39" s="238"/>
-      <c r="J39" s="238"/>
-      <c r="K39" s="239"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="205"/>
       <c r="L39" s="80"/>
       <c r="M39" s="76"/>
       <c r="N39" s="81"/>
     </row>
     <row r="40" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B40" s="226" t="e">
+      <c r="B40" s="192" t="e">
         <f ca="1">PesosMN(M48)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C40" s="227"/>
-      <c r="D40" s="227"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="227"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
-      <c r="K40" s="228"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="193"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="193"/>
+      <c r="K40" s="194"/>
       <c r="L40" s="80"/>
       <c r="M40" s="99" t="s">
         <v>29</v>
@@ -4521,18 +4587,18 @@
       <c r="N40" s="100"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="229" t="str">
+      <c r="B41" s="195" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C41" s="230"/>
-      <c r="D41" s="230"/>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="230"/>
-      <c r="H41" s="230"/>
-      <c r="I41" s="230"/>
-      <c r="J41" s="231"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
       <c r="K41" s="86"/>
       <c r="L41" s="80" t="s">
         <v>29</v>
@@ -4543,21 +4609,21 @@
       <c r="N41" s="100"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="232" t="s">
+      <c r="B42" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="233"/>
-      <c r="D42" s="233"/>
-      <c r="E42" s="234" t="s">
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="235"/>
-      <c r="G42" s="236"/>
-      <c r="H42" s="233" t="s">
+      <c r="F42" s="201"/>
+      <c r="G42" s="202"/>
+      <c r="H42" s="199" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="233"/>
-      <c r="J42" s="237"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="203"/>
       <c r="K42" s="86"/>
       <c r="L42" s="80" t="s">
         <v>29</v>
@@ -4583,21 +4649,21 @@
       <c r="N43" s="109"/>
     </row>
     <row r="44" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B44" s="254" t="s">
+      <c r="B44" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="243"/>
-      <c r="D44" s="243"/>
-      <c r="E44" s="242" t="s">
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="243"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="243" t="s">
+      <c r="F44" s="177"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="243"/>
-      <c r="J44" s="244"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="178"/>
       <c r="K44" s="110"/>
       <c r="L44" s="111" t="s">
         <v>72</v>
@@ -4609,17 +4675,17 @@
       <c r="N44" s="113"/>
     </row>
     <row r="45" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B45" s="245" t="s">
+      <c r="B45" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="224"/>
-      <c r="D45" s="224"/>
-      <c r="E45" s="224"/>
-      <c r="F45" s="224"/>
-      <c r="G45" s="224"/>
-      <c r="H45" s="224"/>
-      <c r="I45" s="224"/>
-      <c r="J45" s="225"/>
+      <c r="C45" s="180"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="180"/>
+      <c r="G45" s="180"/>
+      <c r="H45" s="180"/>
+      <c r="I45" s="180"/>
+      <c r="J45" s="181"/>
       <c r="K45" s="114"/>
       <c r="L45" s="115" t="s">
         <v>74</v>
@@ -4651,12 +4717,12 @@
         <v>76</v>
       </c>
       <c r="G47" s="124"/>
-      <c r="H47" s="246">
+      <c r="H47" s="182">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I47" s="246"/>
-      <c r="J47" s="247"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="183"/>
       <c r="K47" s="114"/>
       <c r="L47" s="115" t="s">
         <v>77</v>
@@ -4665,21 +4731,21 @@
       <c r="N47" s="113"/>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B48" s="248" t="s">
+      <c r="B48" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="249"/>
-      <c r="D48" s="249"/>
-      <c r="E48" s="250" t="s">
+      <c r="C48" s="185"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="251"/>
-      <c r="G48" s="252"/>
-      <c r="H48" s="249" t="s">
+      <c r="F48" s="187"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="249"/>
-      <c r="J48" s="253"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="189"/>
       <c r="K48" s="125" t="s">
         <v>29</v>
       </c>
@@ -4693,18 +4759,18 @@
       <c r="N48" s="113"/>
     </row>
     <row r="49" spans="2:14" ht="13.5" thickTop="1">
-      <c r="B49" s="240"/>
-      <c r="C49" s="240"/>
-      <c r="D49" s="240"/>
-      <c r="E49" s="240"/>
-      <c r="F49" s="240"/>
-      <c r="G49" s="240"/>
-      <c r="H49" s="240"/>
-      <c r="I49" s="240"/>
-      <c r="J49" s="240"/>
-      <c r="K49" s="240"/>
-      <c r="L49" s="240"/>
-      <c r="M49" s="241"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="174"/>
+      <c r="I49" s="174"/>
+      <c r="J49" s="174"/>
+      <c r="K49" s="174"/>
+      <c r="L49" s="174"/>
+      <c r="M49" s="175"/>
       <c r="N49" s="128"/>
     </row>
     <row r="50" spans="2:14">
@@ -4868,27 +4934,30 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="F30:K30"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F15:K15"/>
@@ -4904,31 +4973,28 @@
     <mergeCell ref="F23:K23"/>
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="F25:K25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="F26:K26"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\planeacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B6C434-3DB1-4170-87ED-58B551469AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42174E50-7840-4A34-BD48-562702DE5E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
@@ -292,12 +292,6 @@
     <t xml:space="preserve">N° PARTE </t>
   </si>
   <si>
-    <t>Superintendente de Maquinaria</t>
-  </si>
-  <si>
-    <t>Ing. Othoniel Gonzalez Ruiz</t>
-  </si>
-  <si>
     <t>CONTRAPAGO</t>
   </si>
   <si>
@@ -311,6 +305,12 @@
   </si>
   <si>
     <t xml:space="preserve">L.C. MARY CARMEN BAUTISTA </t>
+  </si>
+  <si>
+    <t>L.C. Mary Carmen Bautista</t>
+  </si>
+  <si>
+    <t>Auxiliar Administrativo</t>
   </si>
 </sst>
 </file>
@@ -1823,21 +1823,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1856,86 +1937,194 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1953,12 +2142,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1986,189 +2169,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2243,22 +2243,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>30278</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>87656</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>273843</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>107154</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>859354</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F28BF5-0EBA-F5FC-ECDB-A402F4E148BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D156103E-CEEC-4DC8-BEC8-DDF70ABDE48E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,17 +2267,8 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -2288,9 +2279,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="678093" y="6000185"/>
-          <a:ext cx="1102967" cy="2065221"/>
+        <a:xfrm>
+          <a:off x="371475" y="8029575"/>
+          <a:ext cx="1478479" cy="1467049"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2804,98 +2795,98 @@
   </sheetPr>
   <dimension ref="B2:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="20" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" customWidth="1"/>
+    <col min="19" max="20" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
-    <row r="5" spans="2:15" ht="15.75">
+    <row r="5" spans="2:15" ht="15.6">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="172" t="s">
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="173"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="140"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
+    <row r="6" spans="2:15" ht="15.6">
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
@@ -2903,17 +2894,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="167" t="s">
+      <c r="M7" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>36</v>
@@ -2923,10 +2914,10 @@
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
@@ -2951,10 +2942,10 @@
       <c r="B11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2986,52 +2977,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="146" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="147" t="s">
+      <c r="D17" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="147" t="s">
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="163" t="s">
+      <c r="J17" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="163" t="s">
+      <c r="K17" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="147" t="s">
+      <c r="L17" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="150"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="164"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="152"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="153"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -3054,23 +3045,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="155"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="156"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="158"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="162"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="156"/>
-      <c r="U20" s="156"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -3078,24 +3069,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="160"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="160"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="164"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3103,25 +3094,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3129,24 +3120,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="160"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="160"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="164"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="157"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3154,24 +3145,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="140"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="160"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="160"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="164"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3179,24 +3170,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="140"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="160"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="162"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="166"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3250,11 +3241,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="146"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="173"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3273,11 +3264,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="173"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3296,11 +3287,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3319,11 +3310,11 @@
         <v>12</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="146"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="173"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -3342,11 +3333,11 @@
         <v>13</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="146"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -3365,11 +3356,11 @@
         <v>14</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="146"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="173"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -3384,11 +3375,11 @@
         <v>15</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="140"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="160"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -3403,11 +3394,11 @@
         <v>16</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="140"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="160"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -3436,11 +3427,11 @@
         <v>18</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="140"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="160"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -3455,13 +3446,13 @@
         <v>19</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="143"/>
+      <c r="D38" s="168" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="170"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -3492,10 +3483,10 @@
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="2:20" s="1" customFormat="1">
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="137"/>
+      <c r="C40" s="167"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>8</v>
@@ -3511,10 +3502,10 @@
       </c>
     </row>
     <row r="43" spans="2:20" s="1" customFormat="1">
-      <c r="B43" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="137"/>
+      <c r="B43" s="144" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="167"/>
       <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3529,10 +3520,10 @@
       </c>
     </row>
     <row r="44" spans="2:20" s="1" customFormat="1">
-      <c r="B44" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="136"/>
+      <c r="B44" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="144"/>
       <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3544,51 +3535,23 @@
       </c>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:O18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="T20:U25"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B45:O45"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B43:C43"/>
@@ -3604,6 +3567,34 @@
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D33:H33"/>
+    <mergeCell ref="L17:O18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="T20:U25"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3618,29 +3609,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="15"/>
+    <col min="4" max="4" width="10.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
     <col min="7" max="7" width="19" style="15" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="15"/>
-    <col min="10" max="10" width="12.85546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="36" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="15"/>
+    <col min="8" max="9" width="11.44140625" style="15"/>
+    <col min="10" max="10" width="12.88671875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="36" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="13.5" thickBot="1"/>
+    <row r="1" spans="2:14" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:14" ht="6" customHeight="1" thickTop="1">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
@@ -3659,19 +3650,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="239" t="s">
+      <c r="E3" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="240" t="s">
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="241"/>
+      <c r="M3" s="177"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3697,95 +3688,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="242" t="s">
+      <c r="L5" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="243"/>
+      <c r="M5" s="179"/>
       <c r="N5" s="54"/>
     </row>
-    <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="224" t="s">
+    <row r="6" spans="2:14" ht="14.4" customHeight="1">
+      <c r="B6" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="229" t="s">
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="232">
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="199">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="233"/>
+      <c r="M6" s="200"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="213"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="234">
+      <c r="B7" s="191"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="201">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="235"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="235"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="237" t="s">
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
+      <c r="L7" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="238"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="46"/>
     </row>
-    <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="212" t="s">
+    <row r="8" spans="2:14" ht="12.9" customHeight="1">
+      <c r="B8" s="206" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="214" t="s">
+      <c r="C8" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="218" t="s">
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="220">
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="213">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="221"/>
+      <c r="M8" s="214"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="213"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="222" t="s">
+      <c r="B9" s="191"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="223"/>
+      <c r="M9" s="187"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3801,66 +3792,66 @@
       <c r="G10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="244">
+      <c r="H10" s="180">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="245"/>
-      <c r="L10" s="246">
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="182">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="247"/>
+      <c r="M10" s="183"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="248">
+      <c r="C11" s="184">
         <f>requi!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="248"/>
-      <c r="E11" s="248"/>
-      <c r="F11" s="249"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="185"/>
       <c r="G11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="244" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="245"/>
-      <c r="L11" s="222" t="s">
+      <c r="H11" s="180" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="223"/>
+      <c r="M11" s="187"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="248"/>
-      <c r="D12" s="248"/>
-      <c r="E12" s="248"/>
-      <c r="F12" s="249"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="185"/>
       <c r="G12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="244" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="245"/>
-      <c r="L12" s="250"/>
-      <c r="M12" s="251"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="H12" s="180" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.95" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
@@ -3869,13 +3860,13 @@
       <c r="G13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="207">
+      <c r="H13" s="215">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="I13" s="207"/>
-      <c r="J13" s="207"/>
-      <c r="K13" s="208"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="216"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3883,7 +3874,7 @@
     <row r="14" spans="2:14" ht="5.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="2:14" ht="13.5" thickBot="1">
+    <row r="15" spans="2:14" ht="13.8" thickBot="1">
       <c r="B15" s="69" t="s">
         <v>23</v>
       </c>
@@ -3896,14 +3887,14 @@
       <c r="E15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="209" t="s">
+      <c r="F15" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="210"/>
-      <c r="K15" s="211"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="219"/>
       <c r="L15" s="70" t="s">
         <v>63</v>
       </c>
@@ -3912,7 +3903,7 @@
       </c>
       <c r="N15" s="72"/>
     </row>
-    <row r="16" spans="2:14" s="73" customFormat="1" ht="14.45" customHeight="1">
+    <row r="16" spans="2:14" s="73" customFormat="1" ht="14.4" customHeight="1">
       <c r="B16" s="74">
         <v>1</v>
       </c>
@@ -3928,15 +3919,15 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="206">
+      <c r="F16" s="174">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="206"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M32" si="0">L16*C16</f>
@@ -3960,15 +3951,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="206">
+      <c r="F17" s="174">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="206"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -3992,15 +3983,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="206">
+      <c r="F18" s="174">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="206"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -4024,15 +4015,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="206">
+      <c r="F19" s="174">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="206"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -4056,15 +4047,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="206">
+      <c r="F20" s="174">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="206"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="206"/>
-      <c r="K20" s="206"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -4088,15 +4079,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="206">
+      <c r="F21" s="174">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="206"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="206"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="174"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -4120,15 +4111,15 @@
         <f>requi!C26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="206">
+      <c r="F22" s="174">
         <f>requi!D26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="206"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="206"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
       <c r="L22" s="80"/>
       <c r="M22" s="76"/>
       <c r="N22" s="81"/>
@@ -4149,15 +4140,15 @@
         <f>requi!C27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="206">
+      <c r="F23" s="174">
         <f>requi!D27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="206"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="206"/>
-      <c r="J23" s="206"/>
-      <c r="K23" s="206"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="174"/>
       <c r="L23" s="80"/>
       <c r="M23" s="76"/>
       <c r="N23" s="81"/>
@@ -4178,15 +4169,15 @@
         <f>requi!C28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="206">
+      <c r="F24" s="174">
         <f>requi!D28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="206"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="206"/>
-      <c r="K24" s="206"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
       <c r="L24" s="80"/>
       <c r="M24" s="76"/>
       <c r="N24" s="81"/>
@@ -4207,15 +4198,15 @@
         <f>requi!C29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="206">
+      <c r="F25" s="174">
         <f>requi!D29</f>
         <v>0</v>
       </c>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="206"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="174"/>
       <c r="L25" s="80"/>
       <c r="M25" s="76"/>
       <c r="N25" s="81"/>
@@ -4236,15 +4227,15 @@
         <f>requi!C30</f>
         <v>0</v>
       </c>
-      <c r="F26" s="206">
+      <c r="F26" s="174">
         <f>requi!D30</f>
         <v>0</v>
       </c>
-      <c r="G26" s="206"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="206"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="206"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
       <c r="L26" s="80"/>
       <c r="M26" s="76"/>
       <c r="N26" s="81"/>
@@ -4265,15 +4256,15 @@
         <f>requi!C31</f>
         <v>0</v>
       </c>
-      <c r="F27" s="206">
+      <c r="F27" s="174">
         <f>requi!D31</f>
         <v>0</v>
       </c>
-      <c r="G27" s="206"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="206"/>
-      <c r="K27" s="206"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
       <c r="L27" s="80"/>
       <c r="M27" s="76"/>
       <c r="N27" s="81"/>
@@ -4294,15 +4285,15 @@
         <f>requi!C32</f>
         <v>0</v>
       </c>
-      <c r="F28" s="206">
+      <c r="F28" s="174">
         <f>requi!D32</f>
         <v>0</v>
       </c>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="206"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
       <c r="L28" s="80"/>
       <c r="M28" s="76">
         <f t="shared" si="0"/>
@@ -4326,15 +4317,15 @@
         <f>requi!C33</f>
         <v>0</v>
       </c>
-      <c r="F29" s="206">
+      <c r="F29" s="174">
         <f>requi!D33</f>
         <v>0</v>
       </c>
-      <c r="G29" s="206"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="206"/>
-      <c r="J29" s="206"/>
-      <c r="K29" s="206"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76">
         <f t="shared" si="0"/>
@@ -4358,15 +4349,15 @@
         <f>requi!C34</f>
         <v>0</v>
       </c>
-      <c r="F30" s="206">
+      <c r="F30" s="174">
         <f>requi!D34</f>
         <v>0</v>
       </c>
-      <c r="G30" s="206"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="206"/>
-      <c r="J30" s="206"/>
-      <c r="K30" s="206"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76">
         <f t="shared" si="0"/>
@@ -4381,12 +4372,12 @@
       <c r="C31" s="78"/>
       <c r="D31" s="82"/>
       <c r="E31" s="83"/>
-      <c r="F31" s="191"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="181"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="222"/>
       <c r="L31" s="80"/>
       <c r="M31" s="76">
         <f t="shared" si="0"/>
@@ -4422,7 +4413,7 @@
       <c r="D33" s="82"/>
       <c r="E33" s="83"/>
       <c r="F33" s="84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
@@ -4444,10 +4435,10 @@
       <c r="G34" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="204"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="205"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="236"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
@@ -4463,13 +4454,13 @@
       <c r="G35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="204">
+      <c r="H35" s="235">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="205"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="236"/>
       <c r="L35" s="80"/>
       <c r="M35" s="76"/>
       <c r="N35" s="81"/>
@@ -4485,13 +4476,13 @@
       <c r="G36" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="204">
+      <c r="H36" s="235">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="205"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="236"/>
       <c r="L36" s="80"/>
       <c r="M36" s="76"/>
       <c r="N36" s="81"/>
@@ -4507,13 +4498,13 @@
       <c r="G37" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="204">
+      <c r="H37" s="235">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I37" s="204"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="205"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="235"/>
+      <c r="K37" s="236"/>
       <c r="L37" s="80"/>
       <c r="M37" s="76"/>
       <c r="N37" s="81"/>
@@ -4529,13 +4520,13 @@
       <c r="G38" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="204">
+      <c r="H38" s="235">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I38" s="204"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="205"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
+      <c r="K38" s="236"/>
       <c r="L38" s="80"/>
       <c r="M38" s="76"/>
       <c r="N38" s="81"/>
@@ -4555,31 +4546,31 @@
       <c r="G39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="204">
+      <c r="H39" s="235">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="205"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="235"/>
+      <c r="K39" s="236"/>
       <c r="L39" s="80"/>
       <c r="M39" s="76"/>
       <c r="N39" s="81"/>
     </row>
-    <row r="40" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B40" s="192" t="e">
+    <row r="40" spans="2:14" ht="10.95" customHeight="1">
+      <c r="B40" s="223" t="e">
         <f ca="1">PesosMN(M48)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C40" s="193"/>
-      <c r="D40" s="193"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="194"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="225"/>
       <c r="L40" s="80"/>
       <c r="M40" s="99" t="s">
         <v>29</v>
@@ -4587,18 +4578,18 @@
       <c r="N40" s="100"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="195" t="str">
+      <c r="B41" s="226" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C41" s="196"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="197"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="227"/>
+      <c r="H41" s="227"/>
+      <c r="I41" s="227"/>
+      <c r="J41" s="228"/>
       <c r="K41" s="86"/>
       <c r="L41" s="80" t="s">
         <v>29</v>
@@ -4609,21 +4600,21 @@
       <c r="N41" s="100"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="198" t="s">
+      <c r="B42" s="229" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="199"/>
-      <c r="D42" s="199"/>
-      <c r="E42" s="200" t="s">
+      <c r="C42" s="230"/>
+      <c r="D42" s="230"/>
+      <c r="E42" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="201"/>
-      <c r="G42" s="202"/>
-      <c r="H42" s="199" t="s">
+      <c r="F42" s="232"/>
+      <c r="G42" s="233"/>
+      <c r="H42" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="199"/>
-      <c r="J42" s="203"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="234"/>
       <c r="K42" s="86"/>
       <c r="L42" s="80" t="s">
         <v>29</v>
@@ -4649,21 +4640,21 @@
       <c r="N43" s="109"/>
     </row>
     <row r="44" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B44" s="190" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="176" t="s">
+      <c r="B44" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="240"/>
+      <c r="D44" s="240"/>
+      <c r="E44" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="177"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="177" t="s">
+      <c r="F44" s="240"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="177"/>
-      <c r="J44" s="178"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="241"/>
       <c r="K44" s="110"/>
       <c r="L44" s="111" t="s">
         <v>72</v>
@@ -4674,18 +4665,18 @@
       </c>
       <c r="N44" s="113"/>
     </row>
-    <row r="45" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B45" s="179" t="s">
+    <row r="45" spans="2:14" ht="14.4" customHeight="1">
+      <c r="B45" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="180"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="181"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="221"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="221"/>
+      <c r="I45" s="221"/>
+      <c r="J45" s="222"/>
       <c r="K45" s="114"/>
       <c r="L45" s="115" t="s">
         <v>74</v>
@@ -4693,7 +4684,7 @@
       <c r="M45" s="112"/>
       <c r="N45" s="113"/>
     </row>
-    <row r="46" spans="2:14" ht="13.15" customHeight="1">
+    <row r="46" spans="2:14" ht="13.2" customHeight="1">
       <c r="B46" s="116"/>
       <c r="C46" s="117"/>
       <c r="D46" s="117"/>
@@ -4710,19 +4701,19 @@
       <c r="M46" s="112"/>
       <c r="N46" s="113"/>
     </row>
-    <row r="47" spans="2:14" ht="11.45" customHeight="1">
+    <row r="47" spans="2:14" ht="11.4" customHeight="1">
       <c r="B47" s="121"/>
       <c r="E47" s="122"/>
       <c r="F47" s="123" t="s">
         <v>76</v>
       </c>
       <c r="G47" s="124"/>
-      <c r="H47" s="182">
+      <c r="H47" s="243">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I47" s="182"/>
-      <c r="J47" s="183"/>
+      <c r="I47" s="243"/>
+      <c r="J47" s="244"/>
       <c r="K47" s="114"/>
       <c r="L47" s="115" t="s">
         <v>77</v>
@@ -4731,21 +4722,21 @@
       <c r="N47" s="113"/>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B48" s="184" t="s">
+      <c r="B48" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="185"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="186" t="s">
+      <c r="C48" s="246"/>
+      <c r="D48" s="246"/>
+      <c r="E48" s="247" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="187"/>
-      <c r="G48" s="188"/>
-      <c r="H48" s="185" t="s">
+      <c r="F48" s="248"/>
+      <c r="G48" s="249"/>
+      <c r="H48" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="185"/>
-      <c r="J48" s="189"/>
+      <c r="I48" s="246"/>
+      <c r="J48" s="250"/>
       <c r="K48" s="125" t="s">
         <v>29</v>
       </c>
@@ -4758,19 +4749,19 @@
       </c>
       <c r="N48" s="113"/>
     </row>
-    <row r="49" spans="2:14" ht="13.5" thickTop="1">
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="174"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="174"/>
-      <c r="I49" s="174"/>
-      <c r="J49" s="174"/>
-      <c r="K49" s="174"/>
-      <c r="L49" s="174"/>
-      <c r="M49" s="175"/>
+    <row r="49" spans="2:14" ht="13.8" thickTop="1">
+      <c r="B49" s="237"/>
+      <c r="C49" s="237"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="237"/>
+      <c r="G49" s="237"/>
+      <c r="H49" s="237"/>
+      <c r="I49" s="237"/>
+      <c r="J49" s="237"/>
+      <c r="K49" s="237"/>
+      <c r="L49" s="237"/>
+      <c r="M49" s="238"/>
       <c r="N49" s="128"/>
     </row>
     <row r="50" spans="2:14">
@@ -4934,30 +4925,27 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
     <mergeCell ref="F30:K30"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F15:K15"/>
@@ -4974,27 +4962,30 @@
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="F25:K25"/>
     <mergeCell ref="F26:K26"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/planeacion/NoFactura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\planeacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42174E50-7840-4A34-BD48-562702DE5E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7405DA-97B8-4FDF-9B50-848A499AC903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
@@ -1823,6 +1823,105 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1838,108 +1937,201 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1973,202 +2165,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2799,94 +2799,94 @@
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" customWidth="1"/>
-    <col min="19" max="20" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="20" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
-    <row r="5" spans="2:15" ht="15.6">
+    <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="139" t="s">
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="140"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="173"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="2:15" ht="15.6">
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
+    <row r="6" spans="2:15" ht="15.75">
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
@@ -2894,17 +2894,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="143" t="s">
+      <c r="M7" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>36</v>
@@ -2914,10 +2914,10 @@
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
@@ -2942,10 +2942,10 @@
       <c r="B11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2977,52 +2977,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="163" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="148" t="s">
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="146" t="s">
+      <c r="J17" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="146" t="s">
+      <c r="K17" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="148" t="s">
+      <c r="L17" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="149"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="150"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="149"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="147"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="153"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="152"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -3045,23 +3045,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="156"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="155"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="162"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="158"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="157"/>
-      <c r="U20" s="157"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -3069,24 +3069,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="160"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="164"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="160"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="157"/>
-      <c r="U21" s="157"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3094,25 +3094,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="160"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="140"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3120,24 +3120,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="160"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="164"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="160"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="157"/>
-      <c r="U23" s="157"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3145,24 +3145,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="140"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="164"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="160"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="157"/>
-      <c r="U24" s="157"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3170,24 +3170,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="160"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="140"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="166"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="162"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="157"/>
-      <c r="U25" s="157"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3241,11 +3241,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="173"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3264,11 +3264,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="173"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3287,11 +3287,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="173"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3310,11 +3310,11 @@
         <v>12</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="173"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="146"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -3333,11 +3333,11 @@
         <v>13</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="146"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -3356,11 +3356,11 @@
         <v>14</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="173"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="146"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -3375,11 +3375,11 @@
         <v>15</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="160"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="140"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -3394,11 +3394,11 @@
         <v>16</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="160"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="140"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -3427,11 +3427,11 @@
         <v>18</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="160"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="140"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -3446,13 +3446,13 @@
         <v>19</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="168" t="s">
+      <c r="D38" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="170"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="143"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -3483,10 +3483,10 @@
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="2:20" s="1" customFormat="1">
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="167"/>
+      <c r="C40" s="137"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>8</v>
@@ -3502,10 +3502,10 @@
       </c>
     </row>
     <row r="43" spans="2:20" s="1" customFormat="1">
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="167"/>
+      <c r="C43" s="137"/>
       <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3520,10 +3520,10 @@
       </c>
     </row>
     <row r="44" spans="2:20" s="1" customFormat="1">
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="144"/>
+      <c r="C44" s="136"/>
       <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3535,23 +3535,51 @@
       </c>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:O18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="T20:U25"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B45:O45"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B43:C43"/>
@@ -3567,34 +3595,6 @@
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D33:H33"/>
-    <mergeCell ref="L17:O18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="T20:U25"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3613,25 +3613,25 @@
       <selection activeCell="E21" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="15"/>
-    <col min="4" max="4" width="10.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="15" customWidth="1"/>
     <col min="7" max="7" width="19" style="15" customWidth="1"/>
-    <col min="8" max="9" width="11.44140625" style="15"/>
-    <col min="10" max="10" width="12.88671875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="36" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" style="15"/>
+    <col min="8" max="9" width="11.42578125" style="15"/>
+    <col min="10" max="10" width="12.85546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="36" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="13.8" thickBot="1"/>
+    <row r="1" spans="2:14" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:14" ht="6" customHeight="1" thickTop="1">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
@@ -3650,19 +3650,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="175" t="s">
+      <c r="E3" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="176" t="s">
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="177"/>
+      <c r="M3" s="241"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3688,95 +3688,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="178" t="s">
+      <c r="L5" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="179"/>
+      <c r="M5" s="243"/>
       <c r="N5" s="54"/>
     </row>
-    <row r="6" spans="2:14" ht="14.4" customHeight="1">
-      <c r="B6" s="190" t="s">
+    <row r="6" spans="2:14" ht="14.45" customHeight="1">
+      <c r="B6" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="196" t="s">
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="199">
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="232">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="200"/>
+      <c r="M6" s="233"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="191"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="201">
+      <c r="B7" s="213"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="234">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="203"/>
-      <c r="L7" s="204" t="s">
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="205"/>
+      <c r="M7" s="238"/>
       <c r="N7" s="46"/>
     </row>
-    <row r="8" spans="2:14" ht="12.9" customHeight="1">
-      <c r="B8" s="206" t="s">
+    <row r="8" spans="2:14" ht="12.95" customHeight="1">
+      <c r="B8" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="207" t="s">
+      <c r="C8" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="207"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="211" t="s">
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="207"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="207"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="213">
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="220">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="214"/>
+      <c r="M8" s="221"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="191"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="186" t="s">
+      <c r="B9" s="213"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="187"/>
+      <c r="M9" s="223"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3792,66 +3792,66 @@
       <c r="G10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="180">
+      <c r="H10" s="244">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="182">
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="245"/>
+      <c r="L10" s="246">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="183"/>
+      <c r="M10" s="247"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="184">
+      <c r="C11" s="248">
         <f>requi!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="185"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="249"/>
       <c r="G11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="180" t="s">
+      <c r="H11" s="244" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="186" t="s">
+      <c r="I11" s="244"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="245"/>
+      <c r="L11" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="187"/>
+      <c r="M11" s="223"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="185"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="249"/>
       <c r="G12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="180" t="s">
+      <c r="H12" s="244" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="189"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.95" customHeight="1" thickBot="1">
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="245"/>
+      <c r="L12" s="250"/>
+      <c r="M12" s="251"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
@@ -3860,13 +3860,13 @@
       <c r="G13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="215">
+      <c r="H13" s="207">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="I13" s="215"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="216"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="207"/>
+      <c r="K13" s="208"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3874,7 +3874,7 @@
     <row r="14" spans="2:14" ht="5.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="2:14" ht="13.8" thickBot="1">
+    <row r="15" spans="2:14" ht="13.5" thickBot="1">
       <c r="B15" s="69" t="s">
         <v>23</v>
       </c>
@@ -3887,14 +3887,14 @@
       <c r="E15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="217" t="s">
+      <c r="F15" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="218"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="219"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="211"/>
       <c r="L15" s="70" t="s">
         <v>63</v>
       </c>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="N15" s="72"/>
     </row>
-    <row r="16" spans="2:14" s="73" customFormat="1" ht="14.4" customHeight="1">
+    <row r="16" spans="2:14" s="73" customFormat="1" ht="14.45" customHeight="1">
       <c r="B16" s="74">
         <v>1</v>
       </c>
@@ -3919,15 +3919,15 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="174">
+      <c r="F16" s="206">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="206"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M32" si="0">L16*C16</f>
@@ -3951,15 +3951,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="174">
+      <c r="F17" s="206">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="206"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -3983,15 +3983,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="174">
+      <c r="F18" s="206">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -4015,15 +4015,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="174">
+      <c r="F19" s="206">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="174"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -4047,15 +4047,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="174">
+      <c r="F20" s="206">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="174"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="206"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -4079,15 +4079,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="174">
+      <c r="F21" s="206">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="174"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -4111,15 +4111,15 @@
         <f>requi!C26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="174">
+      <c r="F22" s="206">
         <f>requi!D26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="174"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="206"/>
       <c r="L22" s="80"/>
       <c r="M22" s="76"/>
       <c r="N22" s="81"/>
@@ -4140,15 +4140,15 @@
         <f>requi!C27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="174">
+      <c r="F23" s="206">
         <f>requi!D27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="174"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="206"/>
       <c r="L23" s="80"/>
       <c r="M23" s="76"/>
       <c r="N23" s="81"/>
@@ -4169,15 +4169,15 @@
         <f>requi!C28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="174">
+      <c r="F24" s="206">
         <f>requi!D28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="206"/>
       <c r="L24" s="80"/>
       <c r="M24" s="76"/>
       <c r="N24" s="81"/>
@@ -4198,15 +4198,15 @@
         <f>requi!C29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="174">
+      <c r="F25" s="206">
         <f>requi!D29</f>
         <v>0</v>
       </c>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
       <c r="L25" s="80"/>
       <c r="M25" s="76"/>
       <c r="N25" s="81"/>
@@ -4227,15 +4227,15 @@
         <f>requi!C30</f>
         <v>0</v>
       </c>
-      <c r="F26" s="174">
+      <c r="F26" s="206">
         <f>requi!D30</f>
         <v>0</v>
       </c>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="206"/>
       <c r="L26" s="80"/>
       <c r="M26" s="76"/>
       <c r="N26" s="81"/>
@@ -4256,15 +4256,15 @@
         <f>requi!C31</f>
         <v>0</v>
       </c>
-      <c r="F27" s="174">
+      <c r="F27" s="206">
         <f>requi!D31</f>
         <v>0</v>
       </c>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="174"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="206"/>
       <c r="L27" s="80"/>
       <c r="M27" s="76"/>
       <c r="N27" s="81"/>
@@ -4285,15 +4285,15 @@
         <f>requi!C32</f>
         <v>0</v>
       </c>
-      <c r="F28" s="174">
+      <c r="F28" s="206">
         <f>requi!D32</f>
         <v>0</v>
       </c>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="206"/>
       <c r="L28" s="80"/>
       <c r="M28" s="76">
         <f t="shared" si="0"/>
@@ -4317,15 +4317,15 @@
         <f>requi!C33</f>
         <v>0</v>
       </c>
-      <c r="F29" s="174">
+      <c r="F29" s="206">
         <f>requi!D33</f>
         <v>0</v>
       </c>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="206"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76">
         <f t="shared" si="0"/>
@@ -4349,15 +4349,15 @@
         <f>requi!C34</f>
         <v>0</v>
       </c>
-      <c r="F30" s="174">
+      <c r="F30" s="206">
         <f>requi!D34</f>
         <v>0</v>
       </c>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="206"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76">
         <f t="shared" si="0"/>
@@ -4372,12 +4372,12 @@
       <c r="C31" s="78"/>
       <c r="D31" s="82"/>
       <c r="E31" s="83"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
-      <c r="K31" s="222"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="181"/>
       <c r="L31" s="80"/>
       <c r="M31" s="76">
         <f t="shared" si="0"/>
@@ -4435,10 +4435,10 @@
       <c r="G34" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="235"/>
-      <c r="I34" s="235"/>
-      <c r="J34" s="235"/>
-      <c r="K34" s="236"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="204"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="205"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
@@ -4454,13 +4454,13 @@
       <c r="G35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="235">
+      <c r="H35" s="204">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I35" s="235"/>
-      <c r="J35" s="235"/>
-      <c r="K35" s="236"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="205"/>
       <c r="L35" s="80"/>
       <c r="M35" s="76"/>
       <c r="N35" s="81"/>
@@ -4476,13 +4476,13 @@
       <c r="G36" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="235">
+      <c r="H36" s="204">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I36" s="235"/>
-      <c r="J36" s="235"/>
-      <c r="K36" s="236"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="205"/>
       <c r="L36" s="80"/>
       <c r="M36" s="76"/>
       <c r="N36" s="81"/>
@@ -4498,13 +4498,13 @@
       <c r="G37" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="235">
+      <c r="H37" s="204">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I37" s="235"/>
-      <c r="J37" s="235"/>
-      <c r="K37" s="236"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="205"/>
       <c r="L37" s="80"/>
       <c r="M37" s="76"/>
       <c r="N37" s="81"/>
@@ -4520,13 +4520,13 @@
       <c r="G38" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="235">
+      <c r="H38" s="204">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I38" s="235"/>
-      <c r="J38" s="235"/>
-      <c r="K38" s="236"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="205"/>
       <c r="L38" s="80"/>
       <c r="M38" s="76"/>
       <c r="N38" s="81"/>
@@ -4546,31 +4546,31 @@
       <c r="G39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="235">
+      <c r="H39" s="204">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I39" s="235"/>
-      <c r="J39" s="235"/>
-      <c r="K39" s="236"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="205"/>
       <c r="L39" s="80"/>
       <c r="M39" s="76"/>
       <c r="N39" s="81"/>
     </row>
-    <row r="40" spans="2:14" ht="10.95" customHeight="1">
-      <c r="B40" s="223" t="e">
+    <row r="40" spans="2:14" ht="10.9" customHeight="1">
+      <c r="B40" s="192" t="e">
         <f ca="1">PesosMN(M48)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="224"/>
-      <c r="I40" s="224"/>
-      <c r="J40" s="224"/>
-      <c r="K40" s="225"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="193"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="193"/>
+      <c r="K40" s="194"/>
       <c r="L40" s="80"/>
       <c r="M40" s="99" t="s">
         <v>29</v>
@@ -4578,18 +4578,18 @@
       <c r="N40" s="100"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="226" t="str">
+      <c r="B41" s="195" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="227"/>
-      <c r="G41" s="227"/>
-      <c r="H41" s="227"/>
-      <c r="I41" s="227"/>
-      <c r="J41" s="228"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
       <c r="K41" s="86"/>
       <c r="L41" s="80" t="s">
         <v>29</v>
@@ -4600,21 +4600,21 @@
       <c r="N41" s="100"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="229" t="s">
+      <c r="B42" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="230"/>
-      <c r="D42" s="230"/>
-      <c r="E42" s="231" t="s">
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="232"/>
-      <c r="G42" s="233"/>
-      <c r="H42" s="230" t="s">
+      <c r="F42" s="201"/>
+      <c r="G42" s="202"/>
+      <c r="H42" s="199" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="230"/>
-      <c r="J42" s="234"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="203"/>
       <c r="K42" s="86"/>
       <c r="L42" s="80" t="s">
         <v>29</v>
@@ -4640,21 +4640,21 @@
       <c r="N43" s="109"/>
     </row>
     <row r="44" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B44" s="251" t="s">
+      <c r="B44" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="240"/>
-      <c r="D44" s="240"/>
-      <c r="E44" s="239" t="s">
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="240"/>
-      <c r="G44" s="241"/>
-      <c r="H44" s="240" t="s">
+      <c r="F44" s="177"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="240"/>
-      <c r="J44" s="241"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="178"/>
       <c r="K44" s="110"/>
       <c r="L44" s="111" t="s">
         <v>72</v>
@@ -4665,18 +4665,18 @@
       </c>
       <c r="N44" s="113"/>
     </row>
-    <row r="45" spans="2:14" ht="14.4" customHeight="1">
-      <c r="B45" s="242" t="s">
+    <row r="45" spans="2:14" ht="14.45" customHeight="1">
+      <c r="B45" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="221"/>
-      <c r="D45" s="221"/>
-      <c r="E45" s="221"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="221"/>
-      <c r="H45" s="221"/>
-      <c r="I45" s="221"/>
-      <c r="J45" s="222"/>
+      <c r="C45" s="180"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="180"/>
+      <c r="G45" s="180"/>
+      <c r="H45" s="180"/>
+      <c r="I45" s="180"/>
+      <c r="J45" s="181"/>
       <c r="K45" s="114"/>
       <c r="L45" s="115" t="s">
         <v>74</v>
@@ -4684,7 +4684,7 @@
       <c r="M45" s="112"/>
       <c r="N45" s="113"/>
     </row>
-    <row r="46" spans="2:14" ht="13.2" customHeight="1">
+    <row r="46" spans="2:14" ht="13.15" customHeight="1">
       <c r="B46" s="116"/>
       <c r="C46" s="117"/>
       <c r="D46" s="117"/>
@@ -4701,19 +4701,19 @@
       <c r="M46" s="112"/>
       <c r="N46" s="113"/>
     </row>
-    <row r="47" spans="2:14" ht="11.4" customHeight="1">
+    <row r="47" spans="2:14" ht="11.45" customHeight="1">
       <c r="B47" s="121"/>
       <c r="E47" s="122"/>
       <c r="F47" s="123" t="s">
         <v>76</v>
       </c>
       <c r="G47" s="124"/>
-      <c r="H47" s="243">
+      <c r="H47" s="182">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I47" s="243"/>
-      <c r="J47" s="244"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="183"/>
       <c r="K47" s="114"/>
       <c r="L47" s="115" t="s">
         <v>77</v>
@@ -4722,21 +4722,21 @@
       <c r="N47" s="113"/>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B48" s="245" t="s">
+      <c r="B48" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="246"/>
-      <c r="D48" s="246"/>
-      <c r="E48" s="247" t="s">
+      <c r="C48" s="185"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="248"/>
-      <c r="G48" s="249"/>
-      <c r="H48" s="246" t="s">
+      <c r="F48" s="187"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="246"/>
-      <c r="J48" s="250"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="189"/>
       <c r="K48" s="125" t="s">
         <v>29</v>
       </c>
@@ -4749,19 +4749,19 @@
       </c>
       <c r="N48" s="113"/>
     </row>
-    <row r="49" spans="2:14" ht="13.8" thickTop="1">
-      <c r="B49" s="237"/>
-      <c r="C49" s="237"/>
-      <c r="D49" s="237"/>
-      <c r="E49" s="237"/>
-      <c r="F49" s="237"/>
-      <c r="G49" s="237"/>
-      <c r="H49" s="237"/>
-      <c r="I49" s="237"/>
-      <c r="J49" s="237"/>
-      <c r="K49" s="237"/>
-      <c r="L49" s="237"/>
-      <c r="M49" s="238"/>
+    <row r="49" spans="2:14" ht="13.5" thickTop="1">
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="174"/>
+      <c r="I49" s="174"/>
+      <c r="J49" s="174"/>
+      <c r="K49" s="174"/>
+      <c r="L49" s="174"/>
+      <c r="M49" s="175"/>
       <c r="N49" s="128"/>
     </row>
     <row r="50" spans="2:14">
@@ -4925,27 +4925,30 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="F30:K30"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F15:K15"/>
@@ -4962,30 +4965,27 @@
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="F25:K25"/>
     <mergeCell ref="F26:K26"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
